--- a/results/comparison_CoTPlainLLM/CoTPlainLLM_results.xlsx
+++ b/results/comparison_CoTPlainLLM/CoTPlainLLM_results.xlsx
@@ -729,14 +729,12 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>Adamax Optimizer
-This class implements the Adamax optimization algorithm.
-**Arguments**
-**Returns**
-*   The Adamax optimizer instance.
-**Raises**
-**Examples**
+The Adamax optimization algorithm is a variant of the Adam optimizer that uses a different method for computing the variance. It combines the benefits of both Adam and RMSProp optimizers.
+The `get_config` method returns a dictionary containing the optimizer's configuration.
+This class does not raise any exceptions.
 ```python
-adamax_optimizer = Adamax(learning_rate=0.001, beta_1=0.9, beta_2=0.999)</t>
+adamax_optimizer = Adamax(learning_rate=0.01, beta_1=0.9, beta_2=0.999)
+```</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -853,33 +851,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Transforms data by aggregating features based on cluster labels.
+          <t>AgglomerationTransform
+----------------------
+A transformer that aggregates features for each label using a user-specified pooling function.
 Parameters
 ----------
     The input data to be transformed.
-    A function used for feature aggregation. If None, the mean is used.
+    The labels associated with the input data.
 Returns
 -------
-    The transformed data, where each row corresponds to a sample in X,
-    and each column corresponds to a feature in X that has been aggregated.
+    A new representation of X where each row corresponds to a label and contains the aggregated features for that label.
 Raises
 ------
-NotFittedError
-    If self is not fitted yet.
-ValueError
-    If the object hasn't been fitted yet or if self.pooling_func is not properly set.
 Examples
 --------
-&gt;&gt;&gt; from sklearn.cluster import AgglomerativeClustering
-&gt;&gt;&gt; from sklearn.datasets import make_blobs
-&gt;&gt;&gt; from sklearn.preprocessing import StandardScaler
-&gt;&gt;&gt; X, y = make_blobs(n_samples=100, centers=4, n_features=2)
-&gt;&gt;&gt; clustering = AgglomerativeClustering(n_clusters=4)
-&gt;&gt;&gt; clustering.fit(X)
-&gt;&gt;&gt; Xt = clustering.transform(X)
-&gt;&gt;&gt; Xt.shape
-(100, 1)
-Note: The inverse_transform method is used to recover the original data from the transformed data.</t>
+&gt;&gt;&gt; from sklearn.pipeline import Pipeline
+&gt;&gt;&gt; from sklearn.feature_extraction.text import TfidfVectorizer
+&gt;&gt;&gt; from sklearn.cluster import KMeans
+&gt;&gt;&gt; from sklearn.preprocessing import AgglomerationTransform
+&gt;&gt;&gt; pipeline = Pipeline([
+...     ('vectorizer', TfidfVectorizer()),
+...     ('agglomerate', AgglomerationTransform(pooling_func=np.mean)),
+...     ('kmeans', KMeans(n_clusters=5))
+... ])
+&gt;&gt;&gt; X, y = ...  # load your data
+&gt;&gt;&gt; pipeline.fit(X, y)
+&gt;&gt;&gt; transformed_data = pipeline.transform(X)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1091,24 +1088,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Creates an AveragePooling1D layer.
-Parameters
-----------
-    The size of the pooling window.
-    The stride between windows. If not specified, it will use the same value as `pool_size`.
-    The padding mode ('valid' or 'same').
-    The data format ('channels_last' or 'channels_first').
-Raises
-------
-ValueError
-    If an invalid value is provided for any of the parameters.
-TypeError
-    If `pool_size` or `strides` are not integers.
-Examples
---------
-&gt;&gt;&gt; from my_deep_learning_library import AveragePooling1D
-# Create a new AveragePooling1D layer with pool size 3 and strides 2
-avg_pool = AveragePooling1D(pool_size=3, strides=2)</t>
+          <t>Creates a 1D average pooling layer.
+Args:
+Returns:
+    An instance of the AveragePooling1D class.
+Raises:
+Examples:
+    &gt;&gt;&gt; avg_pool = AveragePooling1D(pool_size=3)
+    &gt;&gt;&gt; avg_pool
+    AveragePooling1D(pool_size=3)
+Note:
+    This layer performs average pooling on 1D inputs.
+"""
+"""Creates a 1D average pooling layer.
+Args:
+Returns:
+    An instance of the AveragePooling1D class.
+Raises:
+Examples:
+    &gt;&gt;&gt; avg_pool = AveragePooling1D(pool_size=3)
+    &gt;&gt;&gt; avg_pool
+    AveragePooling1D(pool_size=3)
+Note:
+    This layer performs average pooling on 1D inputs.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -1321,14 +1323,13 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>Creates an AveragePooling2D layer.
+This pooling operation divides the output of each receptive field into the number of elements within that field. It's commonly used in neural networks for downsampling and feature extraction.
 Args:
-        If not provided, defaults to `pool_size`.
-        either 'channels_first' or 'channels_last'. Defaults to None.
 Returns:
 Raises:
 Examples:
-    &gt;&gt;&gt; avg_pool = AveragePooling2D(pool_size=(3, 3), strides=None)
-    &gt;&gt;&gt; model.add(avg_pool)</t>
+    &gt;&gt;&gt; avg_pool = AveragePooling2D(pool_size=(3, 3), strides=2)
+    &gt;&gt;&gt; avg_pool = AveragePooling2D(padding='same')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -1464,14 +1465,10 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Creates a 3D average pooling layer.
-Args:
-Returns:
-    An instance of `AveragePooling3D` with the specified parameters.
+          <t>Parameters:
 Raises:
 Examples:
-    &gt;&gt;&gt; pooling = AveragePooling3D(pool_size=(2, 2, 2), strides=1)
-    &gt;&gt;&gt; pooling = AveragePooling3D(padding='same', data_format='channels_first')</t>
+    &gt;&gt;&gt; pooling_op = AveragePooling3D(pool_size=(2, 2, 2), strides=1)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -2465,54 +2462,53 @@
       <c r="E7" t="inlineStr">
         <is>
           <t>Bayesian Gaussian Mixture Model
-This class implements a Bayesian Gaussian mixture model with various covariance types.
+This class extends the `BaseMixture` class to implement a Bayesian Gaussian mixture model.
 Parameters
 ----------
-    Number of components in the mixture.
-    Type of covariance matrix used for each component. If 'spherical', all variances are equal to the global variance. If 'tied', one covariance matrix is shared among all components. If 'diag', each covariance matrix is a diagonal matrix. If 'full', each covariance matrix is a full symmetric matrix.
-    Tolerance for convergence.
-    Regularization coefficient for covariance matrices.
-    Maximum number of iterations for the EM algorithm.
-    Number of initializations for the EM algorithm.
-    Method used to initialize parameters. If 'kmeans', use k-means++ initialization. If 'random', use random initialization.
-    Type of prior distribution used for the concentration parameter of each component.
-    Concentration prior for each component. If None, use a uniform prior.
-    Prior precision for each component's mean. If None, use a uniform prior.
-    Prior distribution for each component's mean. If None, use the data mean as prior.
-    Degrees of freedom prior for each component's precision matrix. If None, use a uniform prior.
-    Prior distribution for each component's covariance matrix. If None, use the data covariance as prior.
-    Seed used to initialize random numbers.
-    Whether to reuse the existing model parameters as starting values for a new fit.
-    Verbosity level.
-    Interval between verbose messages.
+    The number of components in the mixture model.
+    The type of covariance matrix. Options are 'spherical', 'tied', 'diag', and 'full'.
+    The tolerance for convergence.
+    The regularization coefficient for the covariance matrix.
+    The maximum number of iterations.
+    The number of initializations.
+    The initialization method. Options are 'kmeans' and 'random'.
+    The type of prior distribution for the weight concentration parameter. Options are 'dirichlet_process' and 'dirichlet_distribution'.
+    The prior value for the weight concentration parameter.
+    The prior value for the mean precision parameter.
+    The prior value for the mean parameter.
+    The prior value for the degrees of freedom parameter.
+    The prior value for the covariance matrix.
+    The random seed or state.
+    Whether to use warm start initialization.
+    The verbosity level.
 Attributes
 ----------
-    Concentration parameter of each component.
-    Precision matrix of each component's mean.
-    Mean vector of each component.
-    Degrees of freedom for each component's precision matrix.
-    Covariance matrix of each component.
-    Cholesky decomposition of the precision matrix of each component.
+    The estimated value for the weight concentration parameter.
+    The estimated value for the mean precision parameter.
+    The estimated values for the mean parameters.
+    The estimated value for the degrees of freedom parameter.
+    The estimated covariance matrices.
+    The Cholesky factors of the precision matrices.
 Methods
 -------
 __init__(self, *, n_components=1, covariance_type='full', tol=0.001, reg_covar=1e-06, max_iter=100, n_init=1, init_params='kmeans', weight_concentration_prior_type='dirichlet_process', weight_concentration_prior=None, mean_precision_prior=None, mean_prior=None, degrees_of_freedom_prior=None, covariance_prior=None, random_state=None, warm_start=False, verbose=0, verbose_interval=10)
-    Initialize the model.
-_check_parameters(self)
-    Check if parameters are valid.
-_initialize(self, X, y=None)
-    Initialize the model with given data and responsibilities.
+    Initializes the Bayesian Gaussian mixture model.
+_check_parameters(self, X)
+    Checks the parameters for consistency with the input data `X`.
+_initialize(self, X, resp)
+    Initializes the model parameters using the input data `X` and responsibilities `resp`.
 _m_step(self, X, log_resp)
-    Perform the maximization step in the EM algorithm.
-_estimate_log_weights(self)
-    Compute log weights of each component.
-_estimate_log_prob(self, X)
-    Compute log probability density function of each component.
-_compute_lower_bound(self, log_resp, log_prob_norm)
-    Compute lower bound for the model.
+    Updates the model parameters using the input data `X` and responsibilities `log_resp`.
 _get_parameters(self)
-    Get parameters of the model.
+    Returns the current model parameters.
 _set_parameters(self, params)
-    Set parameters of the model.</t>
+    Sets the model parameters from a given set of values.
+Examples
+--------
+&gt;&gt;&gt; from sklearn.mixture import BayesianGaussianMixture
+&gt;&gt;&gt; bgmm = BayesianGaussianMixture(n_components=3, covariance_type='full')
+&gt;&gt;&gt; X = ...  # your data here
+&gt;&gt;&gt; bgmm.fit(X)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -3045,17 +3041,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Convolution Layer
-This is a Convolutional Neural Network (CNN) layer that performs a spatial convolution with shared weights
-and biases.
-Parameters:
-Returns:
-Raises:
-Examples:
-    &gt;&gt;&gt; from keras.layers import Conv
-    &gt;&gt;&gt; conv_layer = Conv(2, 32, (3, 3), activation='relu')
-    &gt;&gt;&gt; inputs = Input((10, 10, 3))
-    &gt;&gt;&gt; outputs = conv_layer(inputs)</t>
+          <t>Convolutional Layer
+This is a convolutional layer implementation based on the Keras API. It supports various types of convolutions, including causal padding for temporal data.
+Parameters
+----------
+    The rank of the input data (number of spatial dimensions).
+    The number of filters to apply during convolution.
+    The size of the kernel (filter) applied during convolution.
+    The stride of the convolution operation. Defaults to 1.
+    The type of padding to apply. Can be 'valid', 'same', or 'causal'. Defaults to 'valid'.
+    The format of the input data (channels last or channels first). Defaults to None (auto-detect).
+    The dilation rate for each spatial dimension. Defaults to 1.
+    The number of groups to apply during convolution. Defaults to 1.
+    The activation function to apply after convolution. Defaults to None (no activation).
+    Whether to include bias terms in the convolution operation. Defaults to True.
+    The initializer for the kernel weights. Defaults to 'glorot_uniform'.
+    The initializer for the bias terms. Defaults to 'zeros'.
+    The regularizer for the kernel weights. Defaults to None.
+    The regularizer for the bias terms. Defaults to None.
+    The regularizer for the activity (output) of the layer. Defaults to None.
+    The constraint for the kernel weights. Defaults to None.
+    The constraint for the bias terms. Defaults to None.
+Returns
+-------
+    The output of the convolutional operation.
+Raises
+------
+ValueError
+    If the number of filters is not evenly divisible by the number of groups.
+ValueError
+    If the kernel size contains zeros.
+ValueError
+    If the strides contain zeros.
+ValueError
+    If causal padding is specified but the layer is not a Conv1D or SeparableConv1D.
+Examples
+--------
+```python
+# Create a convolutional layer with 32 filters, kernel size 3x3, and stride 2
+conv_layer = layers.Conv(rank=2, filters=32, kernel_size=(3, 3), strides=(2, 2))
+# Apply the convolutional operation to an input tensor
+input_tensor = tf.random.normal((1, 28, 28, 1))
+outputs = conv_layer(input_tensor)
+```</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -3271,32 +3299,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Conv1D is a convolutional layer for 1-dimensional inputs.
-Parameters
-----------
-    The number of filters in this layer.
-    Specifies the width and height of the 2D convolution window.
-    Specifies the strides of the sliding window.
-    The padding mode.
-    String, one of channels_first or channels_last (case-insensitive).
-    Specifies the dilation rate to use for dilated convolution.
-    The number of groups.
-    Activation function to use.
-    Boolean, whether the layer uses bias terms.
-    Initializer for the weights.
-    Initializer for the biases.
-    Regularization object for the weights.
-    Regularization object for the biases.
-    Regularization object for the activity stream.
-    Constraint to apply to the weights.
-    Constraint to apply to the biases.
-Raises
-------
-ValueError
-    If invalid parameters are provided.
-Examples
---------
-&gt;&gt;&gt; conv = Conv1D(32, kernel_size=3, strides=2)</t>
+          <t>Convolutional 1D layer (e.g., spatial convolution for sequences).
+Args:
+Returns:
+    The result of the `super(Conv1D, self).__init__` call with specific parameters tailored to 1-dimensional convolutional layers.
+Raises:
+Examples:
+    &gt;&gt;&gt; conv = Conv1D(32, (3,))
+    &gt;&gt;&gt; conv.__dict__</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -3693,25 +3703,35 @@
       <c r="E10" t="inlineStr">
         <is>
           <t>Conv1DTranspose
-A custom implementation of a convolutional transpose layer for 1D inputs.
-This class extends the functionality of `Conv1D` with additional parameters and operations.
+A 1D convolutional transpose operation.
+This layer is an extension of Conv1D, adding support for output padding and modifying the computation of the output shape.
 Parameters
 ----------
-Additional Parameters
---------------------
-The following parameters are used for weight initialization, regularization, and constraint:
+    Number of filters in the convolution.
+    Size of the kernel to be used in the convolution.
+    Stride size for the convolution. Default is 1.
+    Padding type. Default is 'valid'.
+    Additional padding to be applied after the convolution. Default is None.
+    Data format of the input data. Default is None.
+    Dilation rate for the convolution. Default is 1.
+    Activation function to be applied after the convolution. Default is None.
+    Whether to include bias terms in the convolution. Default is True.
+    Initializer for the kernel weights. Default is 'glorot_uniform'.
+    Initializer for the bias terms. Default is 'zeros'.
+    Regularizer to be applied to the kernel weights.
+    Regularizer to be applied to the bias terms.
+    Regularizer to be applied to the output of the convolution.
 Returns
 -------
-The output of the convolutional transpose operation.
+    Output of the convolutional transpose operation.
 Raises
 ------
+ValueError
+    If the input shape is not rank 3 or if the channel dimension is None.
 Examples
 --------
 ```python
-# Create a Conv1DTranspose layer with default parameters
-conv = Conv1DTranspose(32, kernel_size=5)
-# Create a Conv1DTranspose layer with custom parameters
-conv = Conv1DTranspose(64, kernel_size=(3, 7), strides=2, padding='same')
+conv_transpose = Conv1DTranspose(32, kernel_size=3, strides=2)
 ```</t>
         </is>
       </c>
@@ -3964,15 +3984,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Initializes a 2D convolutional layer.
+          <t>Creates a 2D convolutional layer for image data.
 Args:
+Returns:
+    A 2D convolutional layer object with the specified parameters.
 Raises:
-Returns:
-    None
 Examples:
-    &gt;&gt;&gt; conv2d = Conv2D(32, (3, 3), padding='same')
-    &gt;&gt;&gt; conv2d
-    Conv2D(...)</t>
+    &gt;&gt;&gt; from keras.layers import Conv2D
+    &gt;&gt;&gt; conv_layer = Conv2D(32, (3, 3), activation='relu')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -4449,30 +4468,21 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>"""
-Conv2DTranspose Layer
-This layer is a custom implementation of the Conv2DTranspose layer in Keras. It extends the Conv2D class and adds functionality for transposed convolution operations.
-#### Args:
-#### Returns:
-*   The output of the convolution operation.
-#### Raises:
-#### Examples:
+          <t>Transposed Convolutional Layer (Conv2DTranspose)
+This layer performs a 2D transposed convolution operation, also known as a deconvolution or fractionally-strided convolution.
+**Parameters**
+**Returns**
+* The output of the transposed convolution operation, with shape `(batch_size, filters, height, width)` if `data_format='channels_last'`, and `(batch_size, channels, height, width)` otherwise.
+**Raises**
+**Examples**
 ```python
-# Define a Conv2DTranspose layer
-conv_transpose = Conv2DTranspose(
-    filters=32,
-    kernel_size=(3, 3),
-    strides=(2, 2),
-    padding='same',
-    output_padding=None,
-    data_format='channels_last'
-)
-# Use the conv_transpose layer in a Keras model
-model = keras.Sequential([
-    layers.InputLayer(input_shape=(28, 28, 1)),
-    conv_transpose,
-    layers.Activation('relu')
-])</t>
+# Define a 32x32 input image with 3 color channels
+input_image = Input(shape=(32, 32, 3))
+# Apply a transposed convolutional layer with 64 filters and kernel size 4x4
+output = Conv2DTranspose(64, (4, 4), strides=2)(input_image)
+# Print the shape of the output tensor
+print(output.shape)
+```</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -4704,33 +4714,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Conv3D Convolution 3D Layer
-Initializes a Conv3D layer (a convolutional layer for 3D inputs).
-Parameters
-----------
-    The number of filters to use in the convolution.
-    The size of the kernel (or filter) to apply. Can be a single integer for square kernels or a tuple/list of three integers specifying the kernel dimensions.
-    A tuple representing the strides to apply to each dimension. Defaults to `(1, 1, 1)`.
-    The padding mode to use. Can be either `'valid'` or `'same'`. Defaults to `'valid'`.
-    The data format to use for the convolution. Defaults to None.
-    A tuple representing the dilation rate to apply to each dimension. Defaults to `(1, 1, 1)`.
-    The number of groups to divide the input into. Defaults to 1.
-    The activation function to use for the convolution. If None, no activation is applied.
-    Whether to include bias terms in the convolution. Defaults to True.
-    The initializer to use for the kernel weights.
-    The initializer to use for the bias terms.
-    The regularizer to apply to the kernel weights.
-    The regularizer to apply to the bias terms.
-    The regularizer to apply to the activity of the layer.
-    The constraint to apply to the kernel weights.
-    The constraint to apply to the bias terms.
-Raises
-------
-ValueError
-    If an invalid value is passed for any parameter.
-Examples
---------
-&gt;&gt;&gt; conv3d = Conv3D(32, (3, 3, 3), activation='relu')</t>
+          <t>Initializes a 3D convolutional layer.
+Args:
+Raises:
+Returns:
+    A 3D convolutional layer instance with the specified parameters.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -5224,29 +5212,30 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Conv3DTranspose class for 3D transposed convolution operations.
-This class extends Conv3D with an additional output_padding parameter,
-which is used in deconvolutional layers to compute the output shape.
-#### Args:
-        of the output shape along each spatial dimension (default is None).
-        (default is True).
-        (default is 'glorot_uniform').
-        (default is 'zeros').
-        (default is None).
-        (default is None).
-        (default is None).
-        (default is None).
-        (default is None).
-#### Returns:
-    Output tensor.
-#### Raises:
-#### Examples:
+          <t>"""
+Examples
+--------
 ```python
-# Define a Conv3DTranspose layer with 32 filters, kernel size of (3, 3, 3),
-# strides of (2, 2, 2), and output padding of (1, 1, 1).
-conv_layer = Conv3DTranspose(32, (3, 3, 3), strides=(2, 2, 2), output_padding=(1, 1, 1))
-# Apply the layer to an input tensor.
-output = conv_layer(inputs)
+conv_transpose = Conv3DTranspose(
+    filters=32,
+    kernel_size=(2, 2, 2),
+    strides=(1, 1, 1),
+    padding='valid',
+    output_padding=None,
+    data_format=None,
+    dilation_rate=(1, 1, 1),
+    activation=None,
+    use_bias=True,
+    kernel_initializer='glorot_uniform',
+    bias_initializer='zeros',
+    kernel_regularizer=None,
+    bias_regularizer=None,
+    activity_regularizer=None,
+    kernel_constraint=None,
+    bias_constraint=None
+)
+inputs = tf.random.normal((1, 32, 32, 32, 3))
+outputs = conv_transpose(inputs)
 ```</t>
         </is>
       </c>
@@ -5394,24 +5383,28 @@
       <c r="E15" t="inlineStr">
         <is>
           <t>Cropping1D Layer
-Applies 1D cropping to the input tensor.
+Applies 1-dimensional cropping to input data.
 Parameters
 ----------
-    The amount of cropping to apply along the second and third dimensions.
+    The amount of cropping on each side. The first element is the number of elements cropped from the start, and the second element is the number of elements cropped from the end.
+    Passed to the parent layer's `__init__` method.
+Input Specification
+------------------
 Returns
 -------
-    The output tensor with cropped shape.
-    None if the input shape has no fixed length in the second dimension.
+    The output shape after applying the cropping, where the second element is either None or a positive integer representing the length of the cropped area.
+    The input data after applying the cropping.
 Raises
 ------
-None
 Examples
 --------
-# Create a Cropping1D layer with default cropping values
-cropping_layer = Cropping1D()
+```python
+# Create a Cropping1D layer with default cropping parameters
+layer = Cropping1D()
 # Apply cropping to an input tensor
-input_tensor = tf.constant([...])
-output_tensor = cropping_layer(input_tensor)</t>
+input_tensor = tf.constant([[1, 2, 3], [4, 5, 6]])
+output_tensor = layer.call(input_tensor)
+```</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -5650,30 +5643,20 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A layer for 2D spatial cropping.
-This layer crops an input tensor by reducing its shape in the specified dimensions.
-    Args:
-            If it's a tuple of two integers, they represent symmetric height and width
-            cropping. If it's a single integer, it represents both symmetric height and
-            width cropping. If it's a tuple of two tuples of two integers,
-            ((top_crop, bottom_crop), (left_crop, right_crop)), it specifies the
-            cropping for the top/bottom and left/right edges respectively.
-            of dimensions in the input tensor. This is only relevant if `cropping` is a tuple
-            of two tuples of two integers.
-    Returns:
-        A cropped version of the input tensor.
-    Raises:
-    Examples:
-        &gt;&gt;&gt; from tensorflow.keras import layers
-        &gt;&gt;&gt; cropping = (10, 20)
-        &gt;&gt;&gt; layer = layers.Cropping2D(cropping=cropping)
-        &gt;&gt;&gt; inputs = tf.random.normal([1, 28, 28, 3])
-        &gt;&gt;&gt; outputs = layer(inputs)
-        &gt;&gt;&gt; print(outputs.shape)
-        &gt;&gt;&gt; # Symmetric height and width cropping
-        &gt;&gt;&gt; layer = layers.Cropping2D(cropping=10)
-        &gt;&gt;&gt; outputs = layer(inputs)
-        &gt;&gt;&gt; print(outputs.shape)
+          <t>Cropping2D Layer
+Applies 2D cropping to the input data.
+* The output shape of the layer in the `compute_output_shape` method.
+* The cropped input tensor in the `call` method.
+```python
+# Symmetric cropping with data_format='channels_first'
+cropping = Cropping2D(cropping=10, data_format='channels_first')
+input_tensor = tf.ones((1, 3, 224, 224))
+output_tensor = cropping.call(input_tensor)
+# Asymmetric cropping with data_format='channels_last'
+cropping = Cropping2D(cropping=((10, 20), (30, 40)), data_format='channels_last')
+input_tensor = tf.ones((1, 224, 224, 3))
+output_tensor = cropping.call(input_tensor)
+```
 """</t>
         </is>
       </c>
@@ -6040,24 +6023,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cropping3D Layer
-This layer crops an input tensor by specified number of pixels or tuples on each side.
+          <t>Crooping3D Layer
+This layer is used to perform 3D cropping in convolutional neural networks (CNNs).
 Parameters
 ----------
-    A string indicating the format of input data. Either 'channels_first' or 'channels_last'.
+    The amount of pixels to crop from each dimension. If an integer, it applies the same cropping to all dimensions.
+    (left_dim3_crop, right_dim3_crop). Alternatively, can be a tuple of three tuples of two elements:
+    ((left_dim1_crop, right_dim1_crop), (left_dim2_crop, right_dim2_crop), (left_dim3_crop, right_dim3_crop)).
+    The data format of the input. Can be either 'channels_first' or 'channels_last'. Default is None.
 Returns
 -------
-output tensor
+    The shape of the output tensor after cropping.
 Raises
 ------
+ValueError
+    If `cropping` has an invalid type or structure.
 Examples
 --------
-&gt;&gt;&gt; cropping = Cropping3D(cropping=1)
-&gt;&gt;&gt; cropped_tensor = model(inputs, cropping)
-&gt;&gt;&gt; cropping = Cropping3D(cropping=((1, 1), (1, 1), (1, 1)))
-&gt;&gt;&gt; cropped_tensor = model(inputs, cropping)
-&gt;&gt;&gt; cropping = Cropping3D(cropping=((10, 20), (30, 40), (50, 60)))
-&gt;&gt;&gt; cropped_tensor = model(inputs, cropping)</t>
+&gt;&gt;&gt; from keras.layers import Crooping3D
+# Define a 3D cropping layer with symmetric cropping values for all dimensions
+cropping_layer = Crooping3D(cropping=((1, 1), (1, 1), (1, 1)))
+# Use the layer to crop a tensor
+input_tensor = tf.constant([...])
+output_tensor = cropping_layer(input_tensor)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -6483,33 +6471,46 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DBSCAN (Density-Based Spatial Clustering of Applications with Noise) algorithm implementation.
+          <t>DBSCAN (Density-Based Spatial Clustering of Applications with Noise) is a density-based clustering algorithm.
 Parameters
 ----------
-     Maximum distance between points in a cluster; points within this distance are considered neighbors.
-            The number of samples required to form a dense region.
-        Distance metric to use for calculating the distances between data points. If None is passed, it will be set to 'minkowski' with p=2 (Euclidean distance).
-                Additional parameters to pass to the chosen metric.
-            Algorithm used for nearest neighbors search.
-           Number of points in each leaf node when using a ball tree or k-d tree.
-    The power parameter of the Minkowski distance (L_p distance metric) to be used for the calculation of distances between data points. p must be greater than 0.
-         Number of parallel jobs to run for neighbors search.
+    The maximum distance between points in a cluster.
+    The minimum number of samples required to form a dense region.
+    The metric used for calculating distances. Can be one of the following:
+        - 'euclidean'
+        - 'minkowski' (with p parameter)
+        - 'manhattan'
+        - 'chebyshev'
+        - 'cosine'
+        - 'hamming'
+        - 'jaccard'
+        - 'dice'
+        - 'kulsinski'
+        - 'rogerstanimoto'
+        - 'russellrao'
+        - 'sokalmichener'
+        - 'sokalsneath'
+        - 'yule'
+    or a callable function with signature (X, Y) -&gt; array of shape (n_samples_X, n_samples_Y)
+    Additional parameters for the metric function.
+    The algorithm used to compute nearest neighbors. Can be one of the following:
+        - 'ball_tree'
+        - 'kd_tree'
+        - 'brute'
+    The number of points in each leaf node.
+    The power parameter for Minkowski metric.
+    Number of parallel jobs to run.
 Attributes
 ----------
-                      Indices of core samples in the entire data set.
-         Cluster labels for each point in the dataset.
-             Components of the estimated model (if any).
-Examples
+    The indices of the core samples among the entire set of samples.
+    The cluster labels for each point in the dataset.
+    The data points that have been assigned to a cluster.
+See Also
 --------
-&gt;&gt;&gt; from sklearn.cluster import DBSCAN
-&gt;&gt;&gt; X = [[1, 2], [3, 4]]
-&gt;&gt;&gt; db = DBSCAN(eps=0.5)
-&gt;&gt;&gt; db.fit(X)
-DBSCAN(eps=0.5)
-Raises
-------
-ValueError
-          If the input data is not valid.</t>
+DBSCAN
+Notes
+-----
+DBSCAN is sensitive to parameter settings. It's recommended to use a grid search or other hyperparameter tuning methods to find optimal parameters for your dataset.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -6886,13 +6887,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DepthwiseConv2D class for depth-wise separable convolutions.
-This layer is designed to perform depth-wise separable convolutions, which are commonly used in mobile and low-power devices due to their computational efficiency.
-* `None` (in-place operation) or the output of the depth-wise separable convolution.
-```python
-inputs = Input(shape=(28, 28, 1))
-x = DepthwiseConv2D(kernel_size=3, padding='same')(inputs)
-```</t>
+          <t>A depthwise convolutional layer (also known as depthwise separable convolution) in Keras.
+This layer works by first performing a depthwise convolution, where each input channel is convolved with a separate filter. This is followed by a pointwise convolution, where the output of the previous step is convolved with a 1x1 filter to produce the final output.
+Args:
+Raises:
+Returns:
+    The output of the layer after applying the depthwise convolution operation and the activation function (if specified).
+Examples:
+    &gt;&gt;&gt; from tensorflow.keras.layers import DepthwiseConv2D
+    &gt;&gt;&gt; model = tf.keras.Sequential()
+    &gt;&gt;&gt; model.add(DepthwiseConv2D(kernel_size=(3, 3), strides=1, padding='same', depth_multiplier=4))
+    &gt;&gt;&gt; model.compile(optimizer='adam', loss='categorical_crossentropy')</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -7224,38 +7229,18 @@
       <c r="E20" t="inlineStr">
         <is>
           <t>Embedding Layer
-This layer embeds input integers to dense vectors of fixed size.
-Parameters
-----------
-    The number of unique embedding indices.
-    The dimension of the dense vectors.
-    The initializer for the embeddings.
-    The regularizer for the embeddings.
-    The activity regularizer for the layer.
-    The constraint for the embeddings.
-    Whether to mask zero values in the input.
-    The length(s) of input sequences.
-Raises
------
-ValueError
-    If `input_dim` or `output_dim` is not positive.
-Returns
--------
-None
-Examples
---------
+Initializes an embedding layer with various parameters such as input and output dimensions, initializers, regularizers, and constraints.
+**Parameters**
+**Returns**
+* The embedded output.
+**Raises**
+**Examples**
 ```python
-# Create an embedding layer with 1000 unique indices and 128-dimensional vectors.
-embedding_layer = keras.layers.Embedding(input_dim=1000, output_dim=128)
-# Use the layer in a model.
-model = keras.models.Sequential([
-    embedding_layer,
-    keras.layers.Flatten(),
-    keras.layers.Dense(64, activation='relu'),
-    keras.layers.Dense(10)
-])
-# Compile the model.
-model.compile(optimizer='adam', loss='sparse_categorical_crossentropy', metrics=['accuracy'])
+# Create an embedding layer with 1000 input dimensions and 128 output dimensions
+embedding_layer = Embedding(1000, 128)
+# Use the embedding layer to embed some input data
+input_data = tf.constant([[1, 2, 3], [4, 5, 6]])
+embedded_output = embedding_layer(input_data)
 ```</t>
         </is>
       </c>
@@ -8648,10 +8633,10 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>The provided code is a Flask application instance. It appears to be the main application object that handles requests and responses.
-Here's a high-level overview of what each part of the code does:
-Some notable features of this code include:
-This code provides a solid foundation for building web applications with Flask. However, it's worth noting that some parts of the code may be specific to the version of Flask being used or have been modified for a particular project.</t>
+          <t>This is a Flask application class. It's a complex object with many attributes and methods that are used to configure the application, handle requests, and serve responses.
+Here's a high-level overview of how it works:
+Some notable attributes and methods of this class include:
+Overall, this class provides a flexible and customizable way to build web applications using Flask.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -9187,41 +9172,57 @@
         <is>
           <t>FunctionTransformer
 =====================
-Applies a custom function to input data and allows for inverse transformation.
+A custom implementation of the FunctionTransformer class in scikit-learn.
+This class is used to apply any function on the data, and it supports both forward and inverse transformations.
 Parameters
 ----------
-    Custom function to apply to the input data.
-    Inverse function of `func` for reverse transformation.
-    Whether to validate the input data.
-    Whether to accept sparse input data.
-    Whether to check if the provided functions are inverse of each other.
-    Custom feature names for output data.
-    Keyword arguments for custom function `func`.
-    Keyword arguments for inverse function.
+    The input function to be applied. If None, the identity function will be used as default.
+    The inverse function to be applied for inverse transformation. If None, the identity function will be used as default.
+    Flag to enable validation of input data (default is False).
+    Flag to enable sparse acceptance (default is False).
+    Flag to check if the provided functions are strictly inverse of each other (default is True).
+    The function to generate output feature names. If 'one-to-one', it will use one-to-one mapping.
+    Keyword arguments for the input function.
+    Keyword arguments for the inverse function.
 Attributes
 ----------
-    Feature names for transformed data.
+    The input function to be applied.
+    The inverse function to be applied for inverse transformation.
+    Flag to enable validation of input data (default is False).
+    Flag to enable sparse acceptance (default is False).
+    Flag to check if the provided functions are strictly inverse of each other (default is True).
+    The function to generate output feature names. If 'one-to-one', it will use one-to-one mapping.
+    Keyword arguments for the input function.
+    Keyword arguments for the inverse function.
 Methods
 -------
-fit(X[, y])
-    Fits the transformer to input data.
+fit(X, y=None)
+    Fits the transformer to the input data.
 transform(X)
-    Applies custom function to input data.
+    Applies the specified function on the input data.
 inverse_transform(X)
-    Reverses transformation applied by `transform`.
+    Applies the inverse transformation on the input data.
 get_feature_names_out(input_features=None)
-    Returns feature names of transformed data.
+    Returns the output feature names based on the provided configuration or a callable function.
 Examples
 --------
 &gt;&gt;&gt; from sklearn.pipeline import Pipeline
+&gt;&gt;&gt; from sklearn.datasets import load_iris
 &gt;&gt;&gt; from sklearn.preprocessing import FunctionTransformer
-# Define a custom function for data transformation
-# Create a FunctionTransformer instance with the custom function
-transformer = FunctionTransformer(func=double_data)
-# Fit and transform input data using the pipeline
-pipe = Pipeline([('transformer', transformer)])
-X = np.array([1, 2, 3])
-print(pipe.fit_transform(X))</t>
+&gt;&gt;&gt; iris = load_iris()
+&gt;&gt;&gt; X, y = iris.data, iris.target
+&gt;&gt;&gt; ft = FunctionTransformer(func)
+&gt;&gt;&gt; pipeline = Pipeline([('ft', ft)])
+&gt;&gt;&gt; pipeline.fit_transform(X, y)
+Raises
+------
+ValueError
+    If the provided functions are not strictly inverse of each other.
+UserWarning
+    If the provided functions are not strictly inverse of each other.
+Returns
+-------
+    The fitted transformer instance.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -9800,48 +9801,47 @@
       <c r="E23" t="inlineStr">
         <is>
           <t>GaussianMixture
-This class represents a Gaussian Mixture Model (GMM), a probabilistic model that assumes all data points are generated from a mixture of k multivariate normal components.
+This class represents a Gaussian mixture model. It inherits from BaseMixture and provides additional functionality specific to Gaussian mixtures.
 Parameters
 ----------
-    The number of mixture components.
-    Type of covariance parameters to use. Default is full covariance type.
-    Tolerance for convergence.
-    Regularization added to the diagonal of the covariance matrix.
-    Maximum number of iterations.
-    Number of initializations for the EM algorithm.
-    Method to initialize the parameters.
-    Pre-computed weights initialization.
-    Pre-computed means initialization.
-    Pre-computed precisions initialization.
-    Random number generator to use for initialization.
-    Whether to re-use the existing model parameters as starting values.
-    Verbosity mode.
-    Print message at each interval.
+    The number of components in the mixture.
+    The type of covariance matrix used for each component. Options are:
+    The tolerance used in the EM algorithm.
+    The regularization parameter used to prevent singularities in the covariance matrices.
+    The maximum number of iterations allowed for convergence.
+    The number of initializations performed before selecting the best one based on the log likelihood.
+    The method used to initialize the parameters. Options are:
+    An array of initial weights for each component.
+    An array of initial means for each component.
+    An array of initial precisions (inverse covariance matrices) for each component.
+    The random number generator used to initialize the parameters.
+    Whether to reuse the existing model parameters as the initial values for the next fit.
+    Verbosity mode. Options are:
+    The interval at which to print the log likelihood and other metrics during convergence.
 Attributes
 ----------
-    The weights of the mixture components.
-    The means of the mixture components.
-    The covariance matrices of the mixture components.
-    The Cholesky factors of the precision matrices of the mixture components.
+    The weights of each component in the mixture.
+    The means of each component in the mixture.
+    The covariance matrices of each component in the mixture.
+    The Cholesky factors of the precision (inverse covariance) matrices of each component in the mixture.
 Methods
 -------
-__init__
-_check_parameters
-_initialize_parameters
-_initialize
-_m_step
-_estimate_log_prob
-_estimate_log_weights
-_compute_lower_bound
-_get_parameters
-_set_parameters
-bic
-aic
+check_parameters(X)
+    Checks if the provided initial parameters are valid based on their types and shapes.
+initialize_parameters(X, random_state)
+    Initializes the parameters of the Gaussian mixture model using the provided initial values or the results from the previous iteration.
+m_step(X, log_resp)
+    Updates the parameters of the Gaussian mixture model based on the log-likelihood values computed in the E-step.
 Examples
 --------
-&gt;&gt;&gt; from sklearn.mixture import GaussianMixture
-&gt;&gt;&gt; gmm = GaussianMixture(n_components=5)
-&gt;&gt;&gt; gmm.fit(X)  # Fit the model to data X</t>
+# Create a Gaussian mixture model with 3 components and full covariance matrices
+gmm = GaussianMixture(n_components=3, covariance_type='full')
+# Fit the model to some data
+X = ...  # load your dataset here
+gmm.fit(X)
+# Compute the BIC for the fitted model
+bic_value = gmm.bic(X)
+print(bic_value)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -9998,14 +9998,19 @@
       <c r="E24" t="inlineStr">
         <is>
           <t>Global Average Pooling 1D Layer
-This layer applies global average pooling in one-dimensional data.
+This layer performs global average pooling on 1D data. It aggregates the input data by taking the mean value along the specified axis (based on the data format).
 Args:
+        Specifies whether the inputs are in the format (batch_size, steps, channels) or (batch_size, channels, steps).
 Returns:
+    The output of the global average pooling operation. If a mask is provided during call, it's divided by the sum of the mask along the specified axis. Otherwise, it's simply the mean of the inputs along that axis.
 Raises:
 Examples:
-    &gt;&gt;&gt; input_tensor = tf.constant([[1, 2], [3, 4]])
-    &gt;&gt;&gt; layer = GlobalAveragePooling1D()
-    &gt;&gt;&gt; output = layer.call(input_tensor)</t>
+    &gt;&gt;&gt; layer = GlobalAveragePooling1D(data_format='channels_last')
+    &gt;&gt;&gt; outputs = layer(inputs)
+    &gt;&gt;&gt; outputs.shape == (batch_size, 1)  # assuming inputs shape is (batch_size, steps, channels)
+    &gt;&gt;&gt; mask = tf.ones((batch_size, steps))
+    &gt;&gt;&gt; outputs = layer(inputs, mask=mask)
+    &gt;&gt;&gt; outputs.shape == (batch_size, 1)  # assuming inputs shape is (batch_size, steps, channels)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -10128,19 +10133,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Performs global average pooling on 2D input data.
-This method implements the `call` logic for the GlobalAveragePooling2D class.
-It calculates the mean of the input data along specific axes depending on the
-data format and returns the result with or without keeping dimensions.
-Args:
-        format, which can be either 'channels_last' or 'channels_first'.
+          <t>Global Average Pooling Layer
+This layer performs global average pooling on data formatted in a specific way.
+The operation is computed along spatial dimensions, which are determined based
+on the data format of the input. It's useful for reducing the dimensionality of
+feature maps while retaining relevant information.
+Parameters:
 Returns:
+        keeping original dimensionality if `keepdims` is True.
 Raises:
 Examples:
+    &gt;&gt;&gt; # Assuming a 4D input tensor with shape (batch_size, channels, height, width)
     &gt;&gt;&gt; pooling_layer = GlobalAveragePooling2D(data_format='channels_last')
-    &gt;&gt;&gt; inputs = tf.constant([...])  # Input data
-    &gt;&gt;&gt; output = pooling_layer.call(inputs)
-    &gt;&gt;&gt; print(output.shape)  # Output shape depends on the data format</t>
+    &gt;&gt;&gt; result = pooling_layer.call(inputs=np.random.rand(10, 3, 32, 32))</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -10255,18 +10260,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Performs global average pooling on 3D inputs.
+          <t>Performs global average pooling on 3D data, handling both 'channels_last' and 'channels_first' input formats.
 Args:
 Returns:
 Raises:
 Examples:
-    &gt;&gt;&gt; inputs = np.random.rand(10, 20, 30)
-    &gt;&gt;&gt; pooling_op = GlobalAveragePooling3D(data_format='channels_last')
-    &gt;&gt;&gt; result = pooling_op.call(inputs)
-"""
-"""    
-np.ndarray) -&gt; np.ndarray:
-    else:</t>
+    &gt;&gt;&gt; from your_module import GlobalAveragePooling3D
+    &gt;&gt;&gt; pooling = GlobalAveragePooling3D()
+    &gt;&gt;&gt; inputs = np.random.rand(1, 10, 10, 3)  # (batch_size, height, width, channels)
+    &gt;&gt;&gt; result = pooling.call(inputs)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -10401,20 +10403,28 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Perform global max pooling operation on input data.
-Args:
-        The shape of the input data depends on whether 'channels_last' or
-        'channels_first' data format is used. If 'channels_last', inputs should have shape (batch_size, steps, features).
-        If 'channels_first', inputs should have shape (batch_size, features, steps).
-Returns:
-        If keepdims is True, the result will have the same shape as inputs except for the axis specified by steps_axis.
-        If keepdims is False, the result will be a 1-D array with size features (or channels).
-Raises:
-Examples:
-    &gt;&gt;&gt; # Example usage
-    ... layer = GlobalMaxPooling1D(data_format='channels_last', keepdims=True)
-    ... inputs = np.random.rand(10, 5, 3)  # Input data with shape (batch_size, steps, features)
-    ... output = layer.call(inputs)</t>
+          <t>GlobalMaxPooling1D
+=====================
+A class that performs global max pooling on input data.
+Parameters
+----------
+    Input data for max pooling operation.
+    Specifies whether the data format is 'channels_last' or 'channels_first'.
+    Whether to keep dimensions of the result.
+Returns
+-------
+    The result of max pooling on the input data with specified axis and keeping dimensions as per `data_format` and `keepdims`.
+Raises
+------
+ValueError
+    If `inputs` is not a valid input or if `data_format` is neither 'channels_last' nor 'channels_first'.
+Examples
+--------
+&gt;&gt;&gt; # Example usage for GlobalMaxPooling1D class
+&gt;&gt;&gt; from tensorflow.keras.layers import GlobalMaxPooling1D as GMP1D
+&gt;&gt;&gt; inputs = np.array([[[1, 2], [3, 4]], [[5, 6], [7, 8]]])
+&gt;&gt;&gt; gmp1d = GMP1D(data_format='channels_last')
+&gt;&gt;&gt; result = gmp1d.call(inputs)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -10537,23 +10547,20 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Applies global max pooling to input data based on its format.
-This class overrides the base GlobalPooling2D's call method to apply
-global max pooling operation correctly for both 'channels_last' and 'channels_first'
-data formats. It leverages the backend.max function from a deep learning library
-to compute the maximum values along specified axes.
-Args:
-Returns:
-Raises:
-Examples:
-    &gt;&gt;&gt; # Example usage for 'channels_last' format
-    &gt;&gt;&gt; inputs = tf.constant([[[1, 2], [3, 4]]])
-    &gt;&gt;&gt; pooling_layer = GlobalMaxPooling2D(data_format='channels_last')
-    &gt;&gt;&gt; pooled_data = pooling_layer.call(inputs)
-    &gt;&gt;&gt; # Example usage for 'channels_first' format
-    &gt;&gt;&gt; inputs = tf.constant([[[1, 2], [3, 4]]])
-    &gt;&gt;&gt; pooling_layer = GlobalMaxPooling2D(data_format='channels_first')
-    &gt;&gt;&gt; pooled_data = pooling_layer.call(inputs)</t>
+          <t>Applies global max pooling to 2D input data.
+This method pools across all spatial dimensions of the input data, effectively
+reducing the dimensionality while preserving the maximum value at each position.
+**Parameters**
+**Returns**
+* Result of global max pooling applied to `inputs`
+**Raises**
+* Any exception raised by the backend's `max` function
+**Examples**
+```python
+# Example usage:
+pooling_layer = GlobalMaxPooling2D()
+pooled_data = pooling_layer(inputs=np.random.rand(32, 3, 224, 224))
+```</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -10668,18 +10675,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Performs global max pooling on 3D input tensors.
+          <t>Performs global max pooling operation on 3D inputs.
 Args:
-            Expected shape depends on data format (channels_last or channels_first).
-             Defaults to False, meaning the reduced axes are removed.
 Returns:
-    A tensor representing the result of applying max along specified axes for each input tensor.
+    The maximum value along the specified spatial axes for each channel in the input data, with dimensions reduced accordingly.
 Raises:
-                or if keepdims is not a boolean value.
 Examples:
-    # Assuming backend.max and self.data_format are properly set
-    result = GlobalMaxPooling3D().call(inputs=[np.array([...]), np.array([...)]])
-    print(result)</t>
+    &gt;&gt;&gt; # Global Max Pooling 3D example
+    &gt;&gt;&gt; from tensorflow.keras.backend import max
+    &gt;&gt;&gt; inputs = tf.constant([[[[1,2,3],[4,5,6]],[[7,8,9],[10,11,12]]]])
+    &gt;&gt;&gt; global_max_pool_3d = GlobalMaxPooling3D(data_format='channels_last')
+    &gt;&gt;&gt; result = global_max_pool_3d.call(inputs)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -10780,13 +10786,30 @@
       <c r="E30" t="inlineStr">
         <is>
           <t>GlobalPooling1D Layer
-This layer performs global pooling over time. It reduces the spatial dimensions of the input to a single unit.
-Args:
-Returns:
-Raises:
-Examples:
-    inputs = Input(shape=(10, 5))
-    x = GlobalPooling1D(data_format='channels_last')(inputs)</t>
+Pools input data along one dimension (either channels or spatial).
+Parameters
+----------
+    Specifies whether the input data is in 'channels_last' or 'channels_first' format.
+    Determines whether to keep the reduced dimension.
+Attributes
+----------
+    Input specification of the layer. This layer expects inputs with 3 dimensions.
+    Normalized data format based on the input parameter.
+    Whether to keep the reduced dimension.
+Computes Output Shape
+---------------------
+The output shape is calculated based on the input shape, data format, and keepdims flag.
+Raises
+------
+NotImplementedError
+    If the `call` method is not implemented in a subclass.
+Examples
+--------
+&gt;&gt;&gt; from tensorflow.keras.layers import GlobalPooling1D
+# Create an instance of GlobalPooling1D layer
+layer = GlobalPooling1D(data_format='channels_last', keepdims=True)
+# Get the output shape for input shape (batch_size, 10, 20)
+output_shape = layer.compute_output_shape((10, 20))</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -10888,21 +10911,28 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Global Pooling 2D Layer
-This layer performs global pooling operations on input data.
-Args:
-        Either 'channels_last' or 'channels_first'. Defaults to None, which
-        means the data format will be inferred from the inputs. If a value is
-        provided, it must match the data format of the inputs.
-        Defaults to False.
-Returns:
-    A tensor with the same number of samples as input but with reduced spatial
-    dimensions.
-Raises:
-Examples:
-    &gt;&gt;&gt; from keras.layers import GlobalPooling2D
-    &gt;&gt;&gt; inputs = Input(shape=(224, 224, 3))
-    &gt;&gt;&gt; x = GlobalPooling2D(data_format='channels_last')(inputs)</t>
+          <t>GlobalPooling2D Layer
+A layer that performs global pooling operation on 4D input data.
+Parameters
+----------
+    The ordering of the dimensions in the input shape.
+    One of "channels_last" or "channels_first".
+    Whether to keep the spatial dimensions after pooling.
+Returns
+-------
+    The output shape after applying global pooling operation.
+Raises
+-----
+NotImplementedError
+    If `call` method is not implemented in subclass.
+Examples
+--------
+&gt;&gt;&gt; from tensorflow.keras.layers import GlobalPooling2D
+# Create a GlobalPooling2D layer with default settings
+layer = GlobalPooling2D()
+# Get the output shape of the layer for a given input shape
+input_shape = (10, 10, 3)
+output_shape = layer.compute_output_shape(input_shape)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -11002,31 +11032,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Global Pooling 3D Layer
-This layer performs a global pooling operation on 3D input data.
+          <t>GlobalPooling3D Layer
+Performs global pooling operation on the input.
 Parameters
 ----------
-    The ordering of the dimensions in the input shape.
-    Whether to keep the reduced dimension or not.
-Attributes
-----------
-    The expected input shape.
-    The normalized data format.
-    Whether to keep the reduced dimension.
+    Format of input data. Can be either 'channels_last' or 'channels_first'.
+    Whether to keep spatial dimensions of the output.
+    Passed to parent class `Layer`.
 Returns
 -------
-    The output shape based on the input shape and layer attributes.
+    Output shape of the layer.
 Raises
 ------
 NotImplementedError
-    If the `call` method is not implemented by a subclass.
+    If called directly (not intended for direct use).
 Examples
 --------
-&gt;&gt;&gt; from my_keras_module import GlobalPooling3D
-# Create an instance of the layer with default configuration.
-layer = GlobalPooling3D()
-# Get the output shape for a given input shape.
-input_shape = (10, 20, 30, 40, 50)
+# Example usage:
+layer = GlobalPooling3D(data_format='channels_last', keepdims=True)
+input_shape = (batch_size, channels, height, width, depth)
 output_shape = layer.compute_output_shape(input_shape)</t>
         </is>
       </c>
@@ -11351,35 +11375,37 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GroupTimeSeriesSplit
-=====================
-A time series splitting class that supports rolling and expanding windows.
-Parameters
-----------
-    The proportion of test data.
-    The size of training data. If None, it will be calculated based on the number of splits.
-    The number of splits. If None, it will be calculated based on the train size.
-    The gap between train and test sets in the rolling window.
-    The shift in the rolling window.
-    The type of window, either 'rolling' or 'expanding'.
-Returns
--------
-    Train and test indices for each split.
-Raises
-------
-ValueError
-    If groups are not specified or if there's not enough data to split.
-NotEnoughDataError
-    If the train size is less than zero or if the number of splits is less than one.
-Examples
---------
-&gt;&gt;&gt; from sklearn.model_selection import GroupTimeSeriesSplit
-# Initialize the class with test_size and n_splits
-gts = GroupTimeSeriesSplit(test_size=0.2, n_splits=5)
-# Split the data into train and test sets
-train_idx, test_idx = next(gts.split(X, y=None, groups=None))
-# Get the number of splits
-n_splits = gts.get_n_splits()</t>
+          <t>A class to generate time series splits based on group information.
+    Parameters
+    ----------
+        Proportion of test data in each split (0.0 &lt;= test_size &lt; 1.0).
+        Gap between consecutive groups.
+        Shift applied to the window type.
+        Type of window.
+    Attributes
+    ----------
+        Proportion of test data in each split (0.0 &lt;= test_size &lt; 1.0).
+        Total size of training data.
+        Number of splits to perform.
+        Gap between consecutive groups.
+        Shift applied to the window type.
+        Type of window.
+    Methods
+    -------
+    split(X, y=None, groups=None)
+        Generate indices for splitting the data into training and testing sets based on the groups specified.
+    get_n_splits(X=None, y=None, groups=None)
+        Return the number of splits specified in the object's parameters.
+    Raises
+    ------
+    ValueError
+        If invalid combinations of parameters are provided or not enough data is available for splitting.
+    Examples
+    --------
+    &gt;&gt;&gt; from sklearn.model_selection import GroupTimeSeriesSplit
+    &gt;&gt;&gt; gts = GroupTimeSeriesSplit(test_size=0.2, train_size=10)
+    &gt;&gt;&gt; gts.split(X=[1, 2, 3], groups=['A', 'B', 'C'])
+    [(train_idx_1, test_idx_1), (train_idx_2, test_idx_2)]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -11604,39 +11630,37 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kmeans clustering model.
+          <t>K-means Clustering Model
 Parameters
 ----------
     Number of clusters to form.
-    Maximum number of iterations for convergence.
-    Convergence tolerance for the algorithm.
-    Random seed for reproducibility.
+    Maximum number of iterations for the algorithm.
+    Tolerance for convergence. If the difference between successive centroid updates is less than this value, the algorithm stops.
+    Random seed for reproducibility. If not set, a new random seed will be generated.
+    Print progress information during iterations.
 Attributes
 ----------
     Number of clusters formed.
-    Cluster centroids.
-    Mapping from cluster index to sample indices.
-Methods
+    Maximum number of iterations performed.
+    Tolerance for convergence used in the algorithm.
+    Random seed used for initialization.
+    Cluster centroids obtained after fitting.
+    Dictionary mapping cluster indices to their corresponding sample indices.
+    Number of iterations performed by the algorithm.
+Returns
 -------
-__init__(self, k, max_iter=10, convergence_tolerance=1e-05, random_seed=None, print_progress=0)
-    Initialize the Kmeans model.
-_fit(self, X, init_params=True)
-    Perform K-means clustering on input data `X`.
-_get_cluster_idx(self, X, centroids)
-    Calculate cluster index for each sample in `X` based on distance to `centroids`.
-_predict(self, X)
-    Predict cluster labels for new data points in `X`.
+    Fitted model instance.
 Raises
 ------
 ValueError
-    If the number of clusters (`k`) is less than 1.
+    If invalid input data types are provided.
 Examples
 --------
-&gt;&gt;&gt; from sklearn.cluster import KMeans
-&gt;&gt;&gt; kmeans = KMeans(n_clusters=5)
-&gt;&gt;&gt; kmeans.fit(X)
-&gt;&gt;&gt; kmeans.predict(new_X)
-Note: This implementation assumes that the input data `X` has shape `(n_samples, n_features)`.</t>
+&gt;&gt;&gt; from sklearn.datasets import make_blobs
+&gt;&gt;&gt; from your_module import Kmeans
+&gt;&gt;&gt; X, y = make_blobs(n_samples=100, centers=5, n_features=2)
+&gt;&gt;&gt; km = Kmeans(k=3).fit(X)
+&gt;&gt;&gt; km.predict(X)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -12003,29 +12027,29 @@
       <c r="E35" t="inlineStr">
         <is>
           <t>LabelBinarizer
-==============
-Performs label binarization on target variables.
+Transforms labels into binary format.
 Parameters
 ----------
-    The negative label. It should be strictly less than `pos_label`.
-    The positive label.
-    Whether to output in a sparse format.
-Attributes
-----------
-    The type of target variable after fitting.
-    The classes found in the target variable.
-    Whether the input is sparse.
-Notes
------
-This estimator does not support multioutput target data.
-Methods
+    The label value to assign to negative classes.
+    The label value to assign to positive classes.
+    Whether to output in sparse format.
+Returns
 -------
-fit(y)
-    Fit the label binarizer to the target variable `y`.
-transform(y)
-    Transform the target variable `y` using the fitted parameters.
-inverse_transform(Y, threshold=None)
-    Inverse transform the output of `transform`.</t>
+    Fitted estimator.
+Raises
+------
+ValueError
+    If the input data is not compatible with the chosen label settings.
+Examples
+--------
+&gt;&gt;&gt; from sklearn.preprocessing import LabelBinarizer
+&gt;&gt;&gt; lb = LabelBinarizer()
+&gt;&gt;&gt; lb.fit([1, 2, 3])
+LabelBinarizer(neg_label=0, pos_label=1, sparse_output=False)
+&gt;&gt;&gt; lb.transform([1, 2, 3])
+array([[1., 0., 0.],
+       [0., 1., 0.],
+       [0., 0., 1.]])</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -12253,46 +12277,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>array_like) -&gt; None:
-    """
-    Fit the encoder to the input labels.
-    Parameters
-    ----------
-        Target variable containing the categorical labels.
-    Returns
-    -------
-        Fitted encoder object.
-    """
-array_like) -&gt; array_like:
-    """
-    Fit the encoder to the input labels and transform them into numerical codes.
-    Parameters
-    ----------
-        Target variable containing the categorical labels.
-    Returns
-    -------
-        Array of encoded labels.
-    """
-array_like) -&gt; array_like:
-    """
-    Transform the input labels into numerical codes.
-    Parameters
-    ----------
-        Target variable containing the categorical labels.
-    Returns
-    -------
-        Array of encoded labels.
-    """
-array_like) -&gt; array_like:
-    """
-    Transform the encoded labels back into their original form.
-    Parameters
-    ----------
-        Target variable containing the encoded labels.
-    Returns
-    -------
-        Array of original categorical labels.
-    """</t>
+          <t>LabelEncoder
+Encodes labels into numerical values.
+Parameters
+----------
+    Target variable to encode.
+Returns
+-------
+    Fitted instance of the LabelEncoder.
+Examples
+--------
+&gt;&gt;&gt; from sklearn.preprocessing import LabelEncoder
+&gt;&gt;&gt; le = LabelEncoder()
+&gt;&gt;&gt; y = np.array([1, 2, 3, 4, 5])
+&gt;&gt;&gt; le.fit(y)
+LabelEncoder()
+&gt;&gt;&gt; encoded_y = le.transform(y)
+array([0., 1., 2., 3., 4.])
+Inverse Transform
+----------------
+To transform the encoded integer values back to their original class labels,
+use the `inverse_transform` method:
+&gt;&gt;&gt; original_labels = le.inverse_transform(encoded_y)
+array([1, 2, 3, 4, 5])</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -12603,28 +12610,36 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>LinearRegression(model='direct', eta=0.01, epochs=50, minibatches=None, random_seed=None, print_progress=0)
-Parameters
-----------
-    Learning rate.
-    Number of iterations for stochastic gradient descent.
-    Number of minibatches to use in stochastic gradient descent. If None, all data is used at once.
-    Random seed for reproducibility.
-    Flag to print progress during training.
-Attributes
-----------
-    Best-fit bias term.
-    Best-fit weights.
-    List of costs at each iteration.
-Raises
-------
-ValueError
-    If method is 'sgd' and minibatches are not None (or vice versa), or if chosen method is not supported.
-Examples
---------
-&gt;&gt;&gt; model = LinearRegression(model='direct', eta=0.01, epochs=50)
-&gt;&gt;&gt; model.fit(X_train, y_train)
-&gt;&gt;&gt; predictions = model.predict(X_test)</t>
+          <t>Linear Regression Model
+This class implements a linear regression model with support for different
+decomposition (SVD), and QR decomposition.
+**Parameters**
+    - Optimization method to use. Can be 'direct', 'sgd', 'svd', or 'qr'.
+    - Learning rate for SGD.
+    - Number of iterations for SGD.
+    - Size of minibatches for SGD. If None, use all data at once.
+    - Random seed for reproducibility.
+    - Print progress during training.
+**Attributes**
+    - Whether the model has been fitted to data.
+    - Bias term of the linear regression equation.
+    - Weights of the linear regression equation.
+**Methods**
+**Raises**
+**Examples**
+```python
+# Load diabetes dataset
+diabetes = load_diabetes()
+X = diabetes.data
+y = diabetes.target
+# Initialize model with SGD optimization
+model = LinearRegression(method='sgd', eta=0.01, epochs=50)
+# Fit the model to data
+model._fit(X, y)
+# Make predictions on new data
+new_data = [[1, 2, 3], [4, 5, 6]]
+predictions = model._predict(new_data)
+```</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -12909,25 +12924,43 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>"""
-Logistic Regression Model
-This class implements a logistic regression model with L2 regularization.
-It inherits from `_BaseModel`, `_IterativeModel`, and `_Classifier`.
-*   The trained model instance, or None if training fails.
-```python
-# Load iris dataset and split into training and testing sets
-X, y = load_iris(return_X_y=True)
-X_train, X_test, y_train, y_test = train_test_split(X, y, test_size=0.2)
-# Create a logistic regression model with default parameters
-model = LogisticRegression()
-# Train the model on the training set
-model.fit(X_train, y_train)
-# Make predictions on the testing set
-y_pred = model.predict(X_test)
-print(y_pred)
-# Get predicted probabilities for each class
-y_probas = model.predict_proba(X_test)
-print(y_probas)</t>
+          <t>LogisticRegression
+A binary classification model using logistic regression.
+Parameters
+----------
+    Learning rate for SGD.
+    Number of training iterations.
+    Regularization strength (L2).
+    Number of minibatches to divide the data into during training.
+    Random seed for reproducibility.
+    Print progress at each iteration if non-zero.
+Attributes
+----------
+    Model weights.
+    Model bias.
+    Training cost at each epoch.
+    Timestamp when training started.
+    Random number generator for reproducibility.
+Methods
+-------
+__init__(eta=0.01, epochs=50, l2_lambda=0.0, minibatches=1, random_seed=None, print_progress=0)
+    Initialize the model with given parameters.
+_forward(X)
+    Compute output (probability) for input X.
+_backward(X, y_true, y_probas)
+    Calculate gradients of loss with respect to weights and bias.
+_fit(X, y, init_params=True)
+    Train the model on data X and targets y.
+_predict(X)
+    Predict class labels based on input X.
+predict_proba(X)
+    Return predicted probabilities for each input example.
+_logit_cost(y, y_val)
+    Compute log loss between true labels and predicted probabilities.
+_sigmoid_activation(z)
+    Apply sigmoid function to weighted sum of inputs.
+Raises
+------</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -13115,34 +13148,16 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Optional[str] = None, reduction: str = 'sum_over_batch_size', dtype: Optional[tf.DType] = None):
-    """
-    Initializes the Loss function.
-    Args:
-            Possible values include 'sum_over_batch_size', 'mean', etc. Defaults to 'sum_over_batch_size'.
-    Returns:
-        None
-    """
-tf.Tensor, y_pred: tf.Tensor, sample_weight: Optional[tf.Tensor] = None):
-    """
-    Computes the loss value(s) given true and predicted values.
-    Args:
-    Returns:
-    Raises:
-    """
-tf.Tensor, y_pred: tf.Tensor):
-    """
-    Abstract method for computing the loss.
-    Args:
-    Returns:
-    Raises:
-    """
+          <t>"""
+Args:
+Returns:
+Raises:
 """
-    Returns the configuration dictionary for serialization.
-    Returns:
-    """
-@classmethod
-dict):</t>
+"""
+Args:
+Returns:
+Raises:
+"""</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -13313,26 +13328,25 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>MaxPooling1D
-------------
-A custom implementation of max pooling for 1-dimensional data.
-This class inherits from Pooling1D and uses a partial function created with 
-functools.partial() to specify the pooling mode as 'max'.
+Class for performing 1D max pooling operations in neural networks.
 Parameters
 ----------
-    The size of the pooling window.
-    The stride or step size to be used in the pooling operation.
-    Whether to use valid, same or full padding.
-    The data format of input data.
+    Size of the pooling window.
+    Stride or step size for the pooling operation. If None, it will be set to pool_size.
+    Padding mode to use. 'valid' means no padding and 'same' means padding is applied so that output shape is same as input shape.
+    Data format of the input data.
 Raises
 ------
 ValueError
-    If an invalid value is provided for pool_size, strides, padding or data_format.
+    If an invalid value is provided for any parameter.
 Examples
 --------
-To create a MaxPooling1D instance with default parameters:
-&gt;&gt;&gt; max_pooling = MaxPooling1D()
-To specify custom pooling size and stride:
-&gt;&gt;&gt; max_pooling = MaxPooling1D(pool_size=3, strides=2)</t>
+&gt;&gt;&gt; max_pooling = MaxPooling1D(pool_size=3, strides=2)
+3
+(2,)
+Returns
+-------
+None</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -13584,14 +13598,31 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MaxPooling2D
-------------
-A subclass of Pooling2D implementing the Max Pooling operation.
-Parameters:
-Raises:
-Examples:
-    &gt;&gt;&gt; max_pool = MaxPooling2D(pool_size=(3, 3), padding='same')
-    &gt;&gt;&gt; max_pool.build((224, 224, 3))  # Assuming a build method exists</t>
+          <t>Max pooling operation for 2D input.
+This layer pools the input data by taking the maximum value across spatial dimensions specified by pool_size.
+It's commonly used in convolutional neural networks to downsample feature maps.
+Parameters
+----------
+    Size of the pooling window. The window will move this many pixels at a time in both height and width.
+    Stride size (how many pixels to skip when moving the pooling window). If not specified, it defaults to 1 for each dimension.
+    Padding mode. Can be 'valid' (no padding), 'same' (adds zero-padding at edges so output has same shape as input).
+    Data format of the input. If not specified, it defaults to None.
+Returns
+-------
+    The pooled data after applying max pooling operation.
+Raises
+------
+ValueError
+    If pool_size is smaller than strides in any dimension.
+TypeError
+    If input data has incorrect type or shape.
+Examples
+--------
+&gt;&gt;&gt; from keras.layers import MaxPooling2D
+&gt;&gt;&gt; # Create a new instance of MaxPooling2D with default parameters
+&gt;&gt;&gt; layer = MaxPooling2D()
+&gt;&gt;&gt; # Apply max pooling operation on some sample data
+&gt;&gt;&gt; output = layer(np.array([[[1, 2], [3, 4]], [[5, 6], [7, 8]]]))</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -13727,14 +13758,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Creates a 3D max pooling layer.
+          <t>Creates a Max Pooling 3D operation with specified parameters.
 Args:
+        Default is (2, 2, 2).
 Returns:
-    None
+    A MaxPooling3D instance with the specified parameters.
 Raises:
 Examples:
-    &gt;&gt;&gt; max_pooling = MaxPooling3D(pool_size=(2, 2, 2))
-    &gt;&gt;&gt; max_pooling.__dict__</t>
+    &gt;&gt;&gt; max_pooling = MaxPooling3D(pool_size=(2, 2, 2), strides=1)
+    &gt;&gt;&gt; max_pooling = MaxPooling3D(data_format='channels_last')</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -14161,100 +14193,33 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A custom Metric class in Keras.
-This class extends the `KerasSaveable` class and is responsible for tracking and updating metrics during training.
-It provides methods for resetting variables, updating the state of the metric, adding new variables or weights,
-and retrieving the result of the metric. The `stateless_update_state` and `stateless_result` methods allow
+          <t>"""
+A base class for creating custom metrics.
+This class provides a basic structure for creating and managing custom metrics in Keras. It handles the tracking of variables and metrics, as well as providing methods for updating and resetting state during training.
 Args:
 Returns:
-    An instance of the Metric class.
 Raises:
-Examples:
-    # Create a custom metric
-    my_metric = Metric(name='my_custom_metric')
-    # Add variables to the metric
-    variable1 = my_metric.add_variable((10,), initializer='zeros')
-    variable2 = my_metric.add_weight((5,))
-    # Update the state of the metric
-    my_metric.update_state()
-    # Get the result of the metric
-    result = my_metric.result()
-"""
-        """
-        Initializes the metric with a name and dtype policy.
-        Args:
-        """
-        """
-        Resets all variables to zero.
-        Returns:
-            None
-        """
-            v.assign(ops.zeros(v.shape, dtype=v.dtype))
-    @property
-        """
-        Gets the data type policy of this metric.
-        Returns:
-            The data type policy.
-        """
-        """
-        Adds a new variable to the metric.
-        Args:
-        Returns:
-            The added variable.
-        """
-            initializer = initializers.get(initializer)
-            variable = backend.Variable(initializer=initializer, shape=shape, dtype=dtype, trainable=False, aggregation=aggregation, name=name)
-        """
-        Adds a new weight to the metric.
-        Args:
-        Returns:
-            The added weight.
-        """
-    @property
-        """
-        Gets a list of all variables associated with this metric.
-        Returns:
-            A list of variables.
-        """
-        variables = list(self._variables)
-            variables.extend(metric.variables)
-        """
-        Calls the `update_state` method and then returns the result.
-        Args:
-        Returns:
-            The result of the metric.
-        """
-        """
-        Gets the configuration of this metric as a dictionary.
-        Returns:
-            A dictionary containing the name and data type of this metric.
-        """
-    @classmethod
-        """
-        Creates an instance of this metric from its configuration.
-        Args:
-        Returns:
-            An instance of the Metric class.
-        """
-        """
-        Sets an attribute of this metric while tracking it.
-        Args:
-        """
-            value = self._tracker.track(value)
-        """
-        Checks if the `super().__init__()` method has been called.
-        Raises:
-        """
-            raise RuntimeError('You forgot to call `super().__init__()` in the `__init__()` method. Go add it!')
-        """
-        Gets a string representation of this metric.
-        Returns:
-            A string representation of this metric.
-        """
-        """
-        Gets a string representation of this metric.
-        Returns:
-            A string representation of this metric.</t>
+Methods
+--------
+### Updating and Resetting State
+The following methods are used to update and reset state during training:
+### Getting Results
+The following methods are used to get results from the metric:
+### Tracking Variables and Metrics
+The following methods are used to track variables and metrics:
+### Getting Configuration
+The following methods are used to get configuration:
+Examples
+--------
+```python
+        super().__init__(name=name)
+        # Update state logic here
+        pass
+        # Get result logic here
+# Create an instance of MyMetric
+metric = MyMetric(name='my_metric')
+# Add a variable to the metric's tracker
+variable = metric.add_variable((1,), initializer='zeros', name='var1')</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -14684,49 +14649,79 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>""""
-Parameters
-----------
-    Input multi-label data.
-Returns
--------
-    Transformed binary output.
-Raises
-------
-ValueError
-    If the input data is not in binary format.
-Examples
---------
-&gt;&gt;&gt; from sklearn.preprocessing import MultiLabelBinarizer
-&gt;&gt;&gt; mlb = MultiLabelBinarizer()
-&gt;&gt;&gt; y = [[1, 2], [3]]
-&gt;&gt;&gt; yt = mlb.fit_transform(y)
-&gt;&gt;&gt; print(yt.toarray())
-[[0. 1. 1.]
- [1. 0. 0.]]
+          <t>"""
+    Initializes the MultiLabelBinarizer.
+    Parameters
+    ----------
+        The classes to be used for binarization. If not provided, unique classes will be determined from the input data.
+        Whether the output should be a sparse matrix or a dense array.
+    Returns
+    -------
+        The initialized transformer.
+    """
 """
-""""
-Parameters
-----------
-    Input data to be transformed.
-Returns
--------
-    Transformed binary output.
-Raises
-------
-ValueError
-    If the input data is not in binary format.
-Examples
---------
-&gt;&gt;&gt; from sklearn.preprocessing import MultiLabelBinarizer
-&gt;&gt;&gt; mlb = MultiLabelBinarizer()
-&gt;&gt;&gt; y = [[1, 2], [3]]
-&gt;&gt;&gt; yt = mlb.transform(y)
-&gt;&gt;&gt; print(yt.toarray())
-[[0. 1. 1.]
- [1. 0. 0.]]
+    Fits the transformer to the data.
+    Parameters
+    ----------
+        The input data.
+    Returns
+    -------
+        The fitted transformer.
+    Raises
+    ------
+    ValueError
+        If the classes argument contains duplicate classes.
+    """
 """
-"</t>
+    Fits the transformer to the data and returns the transformed data.
+    Parameters
+    ----------
+        The input data.
+    Returns
+    -------
+        The transformed data.
+    See also
+    --------
+    transform
+    """
+"""
+    Transforms the input data into a sparse matrix.
+    Parameters
+    ----------
+        The input data.
+    Returns
+    -------
+        The transformed data.
+    """
+"""
+    Converts the sparse matrix back to multi-label data.
+    Parameters
+    ----------
+        The input data.
+    Returns
+    -------
+        The original multi-label data.
+    Raises
+    ------
+    ValueError
+        If the input data contains unexpected values.
+    """
+"""
+    Builds a cache dictionary that maps class indices to their corresponding values.
+    Returns
+    -------
+        The cache dictionary.
+    """
+"""
+    Performs the actual transformation.
+    Parameters
+    ----------
+        The input data.
+        A dictionary that maps class indices to their corresponding values.
+    Returns
+    -------
+        The transformed data.
+    """</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -15888,49 +15883,71 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>One-Hot Encoder
-Encodes categorical variables as binary vectors.
-Parameters
-----------
-    If 'auto', determine categories automatically from X.
-    Otherwise, if a numpy array is provided, it will be casted to a category type.
-    In binary encoding, drop the first or one of the categories in each feature.
-    In one-hot encoding, drop one of the categories in each feature. By default,
-    drop the first category in each feature.
-    Whether to output a sparse matrix or not.
-    Data type of the encoded array.
-    Handle unknown categories by error (default), ignore, or infrequent if exist.
-    Minimum frequency to consider a category as frequent. If None, all categories are considered frequent.
-    Maximum number of categories in each feature. If None, all categories will be kept.
-    Function to combine the names of features and categories.
-Attributes
-----------
-    Categories for each feature.
-    Indexes of dropped categories after grouping.
-    Indices of infrequent categories in each feature.
-    Mapping from default to infrequent categories in each feature.
-Methods
--------
-fit(X, y=None)
-    Fit the encoder to X.
-transform(X)
-    Transform X using the fitted encoder.
-inverse_transform(X)
-    Inverse transform X using the fitted encoder.
-get_feature_names_out(input_features=None)
-    Get feature names for the transformed data.
-Examples
---------
-&gt;&gt;&gt; from sklearn.preprocessing import OneHotEncoder
-&gt;&gt;&gt; encoder = OneHotEncoder(handle_unknown='ignore')
-&gt;&gt;&gt; encoder.fit([[1, 2], [3]])
-OneHotEncoder(categories='auto', drop=None, handle_unknown='ignore',
-              max_categories=None, min_frequency=None,
-              n_values=None, sparse_output=True, dtype=&lt;class 'numpy.float64'&gt;)
-&gt;&gt;&gt; encoded = encoder.transform([[1, 2], [3]])
-&gt;&gt;&gt; encoded.toarray()
-array([[1., 0., 1.],
-       [0., 1., 0.]])</t>
+          <t>"""
+    Encodes categorical variables into numerical ones using one-hot encoding.
+    Parameters
+    ----------
+        Whether to output sparse matrices (default) or dense arrays.
+        Data type for the encoded features.
+        Minimum frequency for categories. Categories with frequencies below this threshold will be ignored.
+        Maximum number of categories allowed per feature.
+        Function to combine the names of features in a transformed category.
+    Returns
+    -------
+    OneHotEncoder
+        The fitted encoder object.
+    Raises
+    ------
+    ValueError
+        If unknown categories are encountered and handle_unknown is 'error'.
+    """
+                 handle_unknown='error', min_frequency=None, max_categories=None,
+                 feature_name_combiner='concat'):
+        """
+        Initialize the OneHotEncoder object.
+        Parameters
+        ----------
+            Whether to output sparse matrices (default) or dense arrays.
+            Data type for the encoded features.
+            Minimum frequency for categories. Categories with frequencies below this threshold will be ignored.
+            Maximum number of categories allowed per feature.
+            Function to combine the names of features in a transformed category.
+        Returns
+        -------
+        OneHotEncoder
+            The initialized encoder object.
+        """
+        """
+        Fit the encoder to the training data.
+        Parameters
+        ----------
+            Training data.
+            Target variable. Not used in this implementation.
+        Returns
+        -------
+        OneHotEncoder
+            The fitted encoder object.
+        """
+        """
+        Transform the input data into one-hot encoded format.
+        Parameters
+        ----------
+            Input data to be transformed.
+        Returns
+        -------
+        array-like
+            Transformed data in one-hot encoded format.
+        """
+        """
+        Inversely transform the one-hot encoded data back to its original categorical form.
+        Parameters
+        ----------
+            One-hot encoded data to be inversely transformed.
+        Returns
+        -------
+        array-like
+            Original categorical data.
+        """</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -16434,42 +16451,35 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OPTICS (Ordering Points To Identify the Clustering Structure) algorithm for density-based clustering.
-Parameters
+          <t>Parameters
 ----------
-    Minimum number of samples required in a neighborhood for a point to be considered as a core sample.
-    Maximum radius of neighborhoods.
-    Distance metric used for calculating distances between points. Options include 'euclidean', 'minkowski', and 'precomputed'.
-    Exponent used in the Minkowski distance.
-    Additional parameters for the chosen metric.
-    Method to use for cluster assignment. Options include 'dbscan' and 'xi'.
-    Radius of neighborhoods for DBSCAN if cluster_method is 'dbscan'.
+    Minimum number of samples required to form a cluster.
+    Maximum radius of clusters. The algorithm will stop when all points are within this distance from their nearest neighbor.
+    Metric to use for distance calculations. Can be 'euclidean', 'manhattan', 'minkowski' (n-minkowski), or a custom function that takes two arrays as input and returns the pairwise distances between them.
+    Order of the Minkowski metric. This is only used if `metric='minkowski'`.
+    Additional parameters to be passed to the metric function.
+    Method for forming clusters. Can be either DBSCAN or OPTICS-XI.
+    If `cluster_method` is 'dbscan', this specifies the maximum distance between points in a cluster. If `None`, it will use `max_eps`.
+    If `cluster_method` is 'xi', this specifies the minimum proportion of core points required to form a cluster.
+    Whether or not to apply predecessor correction when using OPTICS-XI.
+    Minimum number of samples required in a cluster. If `None`, it will use the value specified by `min_samples`.
+    Algorithm to be used for efficient nearest-neighbor search.
+    Leaf size of the Ball Tree/KD Tree.
+    Memory location where the computation results are stored. Can be 'rmm', 'cuda', or a custom memory object that implements the `cache` method.
+    Number of parallel jobs to run for efficient computation.
 Returns
 -------
-    Fitted estimator.
+    The instance of the class itself after performing clustering.
 Raises
 ------
 ValueError
-    If the specified epsilon in DBSCAN is larger than the maximum epsilon.
+    If the specified epsilon is larger than the maximum allowed epsilon.
 Examples
 --------
 &gt;&gt;&gt; from sklearn.cluster import OPTICS
-&gt;&gt;&gt; optics = OPTICS(min_samples=50, max_eps=0.5)
-&gt;&gt;&gt; optics.fit(X)
-"""
-"""
-Fit the model to data.
-Parameters
-----------
-    Training set.
-    There is no need for a target in unsupervised learning.
-Returns
--------
-    Fitted estimator.
-Raises
-------
-DataConversionWarning
-    If the input data needs to be converted to boolean or float type due to the chosen metric.</t>
+&gt;&gt;&gt; X = [[1, 2], [3, 4]]
+&gt;&gt;&gt; model = OPTICS()
+&gt;&gt;&gt; model.fit(X)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -17126,76 +17136,46 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>'encoded_missing_value': [Integral, type(np.nan)], 'handle_unknown': 
-                                   [StrOptions({'error', 'use_encoded_value'})], 'unknown_value': 
-                 encoded_missing_value=np.nan, min_frequency=None, max_categories=None):
-        """
-        Initialize the OrdinalEncoder.
-        Parameters
-        ----------
-            Categories to encode. If 'auto', the encoder will find the unique categories
-            in the training data.
-            Data type of the encoded array.
-            How to handle unknown categories.
-            - If 'error', raise an error when encountering an unknown category.
-            - If 'use_encoded_value', map unknown categories to a specified value (defaulting
-              to NaN).
-            Value used to encode missing values. Only used if handle_unknown is ‘use_encoded_value’.
-            Minimum frequency of a category for it to be included in the encoding.
-            Maximum number of categories per feature.
-        Attributes
-        ----------
-            Categories for each feature.
-            Value used to encode unknown categories. Only set if handle_unknown is ‘use_encoded_value’.
-            Value used to encode missing values.
-        """
-    @_fit_context(prefer_skip_nested_validation=True)
-        """
-        Fit the OrdinalEncoder to the training data.
-        Parameters
-        ----------
-            Training data.
-            Target values. If None, this method will not raise an error if X is empty.
-        Returns
-        -------
-            Fitted encoder.
-        Raises
-        ------
-        ValueError :
-            If handle_unknown is 'use_encoded_value' and unknown_value is not NaN.
-        TypeError :
-            If handle_unknown is ‘use_encoded_value’ and unknown_value is not an integer or NaN.
-        """
-        # Checks for handle_unknown == 'use_encoded_value'
-                    raise ValueError(f'When unknown_value is np.nan, the dtype parameter should be a float dtype. Got {self.dtype}.')
-            elif not isinstance(self.unknown_value, numbers.Integral):
-                raise TypeError(f"unknown_value should be an integer or np.nan when handle_unknown is 'use_encoded_value', got {self.unknown_value}.")
-        # Check for unknown_value
-        elif self.unknown_value is not None:
-            raise TypeError(f"unknown_value should only be set when handle_unknown is 'use_encoded_value', got {self.unknown_value}.")
-        fit_results = self._fit(X, handle_unknown=self.handle_unknown, force_all_finite='allow-nan', return_and_ignore_missing_for_infrequent=True)
-        cardinalities = [len(categories) for categories in self.categories_]
-                    cardinalities[feature_idx] -= len(infrequent)
-                cardinalities[cat_idx] -= 1
-        # Check for unknown_value
-                    raise ValueError(f'The used value for unknown_value {self.unknown_value} is one of the values already used for encoding the seen categories.')
-        # Check for missing values
-                invalid_features = [cat_idx for cat_idx, cardinality in enumerate(cardinalities) if cat_idx in self._missing_indices and 0 &lt;= self.encoded_missing_value &lt; cardinality]
-                        invalid_features = self.feature_names_in_[invalid_features]
-        """
-        Apply the learned mapping to new data.
-        Parameters
-        ----------
-            New data to be encoded.
-        Returns
-        -------
-            Transformed data.
-        """
-        check_is_fitted(self, 'categories_')
-        X_int, X_mask = self._transform(X, handle_unknown=self.handle_unknown, force_all_finite='allow-nan', ignore_category_indices=self._missing_indices)
-        X_trans = X_int.astype(self.dtype, copy=False)
-            X_trans[X_missing_mask, cat_idx] = self.encoded_missing_value
-            X_trans[~X_mask] = self.unknown_value</t>
+          <t>OrdinalEncoder
+Encodes categorical variables using their ordinal information.
+Parameters
+----------
+    A sequence or mapping of categories for each feature.
+    Data type to be used in the encoding process. If dtype is not a float type and encoded_missing_value is np.nan, it will raise an error when there are missing values in features with non-float dtypes.
+    Handle unknown categories by either raising an error or using a specified value for encoding.
+    Value to be used for encoding unknown categories when handle_unknown is set to 'use_encoded_value'.
+    Value to be used for encoding missing values in features with non-float dtypes. If this value is np.nan and dtype is not a float type, it will raise an error when there are missing values in features with non-float dtypes.
+    Minimum frequency of categories to be considered for encoding. If set, only categories that appear at least as many times as min_frequency will be encoded.
+    Maximum number of categories to encode. If set, the top max_categories categories with the highest frequency will be encoded.
+Attributes
+----------
+    The learned categories for each feature.
+    A dictionary mapping feature indices to their corresponding missing values.
+    A list of infrequent categories for each feature.
+    A list of infrequent indices for each feature.
+Methods
+-------
+fit(X, y=None)
+    Encodes the categorical features in X using the learned categories.
+transform(X)
+    Applies the learned encoding to new data and returns the encoded data.
+inverse_transform(X)
+    Transforms the encoded data back into its original form.
+Examples
+--------
+&gt;&gt;&gt; from sklearn.preprocessing import OrdinalEncoder
+&gt;&gt;&gt; encoder = OrdinalEncoder(categories=['a', 'b', 'c'])
+&gt;&gt;&gt; X = [['a'], ['b'], ['c']]
+&gt;&gt;&gt; encoder.fit(X)
+OrdinalEncoder(categories=['a', 'b', 'c'])
+&gt;&gt;&gt; encoded_X = encoder.transform(X)
+array([[0.],
+       [1.],
+       [2.]])
+&gt;&gt;&gt; original_X = encoder.inverse_transform(encoded_X)
+array([['a'],
+       ['b'],
+       ['c']])</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -17367,33 +17347,31 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>"""
-Pooling1D class
-A 1-dimensional pooling layer in a neural network.
+          <t>Pooling1D Layer
+Applies 1D pooling to inputs along a specific axis.
 Parameters
 ----------
-    The pooling function to be applied (e.g., max_pooling_1d).
+    The function used for pooling (e.g., max, avg).
     The size of the pooling window.
-    The stride(s) of the pooling operation. If not specified, it will default to pool_size.
-    The type of padding used in the pooling operation (e.g., 'valid', 'same').
-    The format of the input data ('channels_last' or 'channels_first').
-    An optional name for the layer.
+    The stride between pooling windows. If not provided, it defaults to the pool size.
+    The padding mode ('valid' or 'same'). Defaults to 'valid'.
+    The data format ('channels_last' or 'channels_first'). Defaults to backend image data format if not specified.
 Returns
 -------
     The output of the pooling operation.
-    The shape of the output.
 Raises
 ------
 ValueError
-    If invalid parameters are provided.
+    If invalid input shapes or parameters are provided.
 Examples
 --------
 ```python
-# Create a 1-dimensional max pooling layer with pool size 2 and stride 2
-pool_layer = Pooling1D(pool_function=max_pooling_1d, pool_size=2, strides=2)
-# Apply the pooling operation to an input tensor
-inputs = tf.constant([[1, 2, 3], [4, 5, 6]])
-outputs = pool_layer(inputs)</t>
+# Define a 1D pooling layer with max function and pool size 3
+pool_layer = Pooling1D(pool_function='max', pool_size=3)
+# Apply the pooling layer to an input tensor
+input_tensor = Input(shape=(10,))
+output_tensor = pool_layer(input_tensor)
+```</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -17584,17 +17562,16 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>"""
-Args:
+          <t>Pooling2D Layer
+Applies the specified pooling function to the input data.
+Parameters:
 Returns:
 Raises:
-"""
-"""
-Args:
-Returns:
-"""
-"""
-Returns:</t>
+Examples:
+    &gt;&gt;&gt; from tensorflow.keras.layers import Pooling2D
+    &gt;&gt;&gt; pooling_layer = Pooling2D(pool_function=max_pooling_2d, pool_size=(3, 3), strides=2, padding='same')
+    &gt;&gt;&gt; output = pooling_layer(inputs)
+"""</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -17798,29 +17775,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Pooling3D layer definition.
-This layer applies a 3D pooling operation to the input data. It supports both max and average pooling.
-    Parameters
-    ----------
-        The pooling function to apply (e.g., `tf.keras.layers.MaxPooling3D`).
-        A tuple representing the size of the pooling window.
-        An optional parameter for stride size. If not provided, it defaults to the pool size.
-        The padding mode ('valid' or 'same'). Defaults to `'valid'`.
-        The data format ('channels_last' or 'channels_first'). Defaults to `'channels_last'`.
-        The name of the layer.
-    Returns
-    -------
-        The output of the pooling operation.
-    Raises
-    ------
-    ValueError
-        If invalid parameters are provided during initialization.
-    Examples
-    --------
-    &gt;&gt;&gt; from tensorflow.keras.layers import Pooling3D
-    &gt;&gt;&gt; pool = Pooling3D(pool_function=tf.keras.layers.MaxPooling3D, pool_size=(2, 2, 2), strides=None)
-    &gt;&gt;&gt; outputs = pool(inputs)
-"""</t>
+          <t>A 3D pooling layer.
+This layer performs a 3D pooling operation on the input data. It can use various pooling functions, such as max or average pooling.
+*   A tensor representing the output of the pooling operation.
+```python
+# Create a 3D max pooling layer with pool size (2, 2, 2) and strides (1, 1, 1)
+pool_layer = Pooling3D(pool_function='max', pool_size=(2, 2, 2), strides=(1, 1, 1))
+# Create a 3D average pooling layer with pool size (2, 2, 2) and strides (1, 1, 1)
+avg_pool_layer = Pooling3D(pool_function='avg', pool_size=(2, 2, 2), strides=(1, 1, 1))
+```</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -18150,27 +18113,53 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Principal Component Analysis (PCA)
+          <t>"""
 Parameters
 ----------
-    Number of principal components to retain. If None, all components are retained.
-    Solver to use for eigendecomposition or SVD. 'eigen' uses the eigenvalue decomposition directly,
-    Whether to perform whitening on the transformed data.
+    The data to be fitted.
 Returns
 -------
 self
+    Fitted instance.
 Raises
 ------
 AttributeError
-    If n_components is less than 1 or if solver is not one of {'eigen', 'svd'}.
-AttributeError
-    If object has not been fitted yet and transform method is called.
+    If object has not been fitted yet.
 Examples
 --------
-&gt;&gt;&gt; from sklearn.decomposition import PCA
 &gt;&gt;&gt; pca = PCA(n_components=2)
-&gt;&gt;&gt; pca.fit(X)
-&gt;&gt;&gt; transformed_data = pca.transform(X)
+&gt;&gt;&gt; pca.fit(data)
+"""
+"""
+Parameters
+----------
+Returns
+-------
+    The projected data onto the principal components.
+"""
+"""Private Methods
+These methods are not intended to be called directly from outside this class.
+"""
+"""
+Parameters
+----------
+Returns
+-------
+    The covariance matrix of X.
+Examples
+--------
+&gt;&gt;&gt; pca._covariance_matrix(data)
+"""
+"""
+Parameters
+----------
+Returns
+-------
+    The eigenvalues.
+    The eigenvectors.
+Examples
+--------
+&gt;&gt;&gt; pca._decomposition(cov_mat, n_samples)
 """</t>
         </is>
       </c>
@@ -18598,17 +18587,16 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>RMSprop Optimizer
-This class implements the RMSProp optimization algorithm. It is an adaptive learning rate method that divides the learning rate by an exponentially decaying average of squared gradients.
-Args:
-Returns:
-    An instance of `RMSprop` with the specified parameters.
-Raises:
-Examples:
+This class implements the RMSProp optimizer algorithm for stochastic gradient descent.
+**Attributes**
+**Methods**
+**Raises**
+**Examples**
 ```python
-# Create an instance of RMSprop
-optimizer = tf.keras.optimizers.RMSprop(learning_rate=0.001)
-# Compile a model with the optimizer
-model.compile(optimizer=optimizer, loss='mean_squared_error')
+# Create an RMSprop optimizer with default parameters
+optimizer = tf.keras.optimizers.RMSprop()
+# Create an RMSprop optimizer with custom parameters
+optimizer = tf.keras.optimizers.RMSprop(learning_rate=0.01, rho=0.9, momentum=0.5)
 ```</t>
         </is>
       </c>
@@ -19348,42 +19336,39 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SelfTrainingClassifier is a meta-estimator that trains an estimator on labeled data and then uses this estimator to predict labels for unlabeled samples.
+          <t>SelfTrainingClassifier
+======================
+A self-training classifier that uses the self-training algorithm to classify samples.
 Parameters
 ----------
-    The estimator to use. If None, the base_estimator will be used.
-    The base estimator to use. It can also be a string indicating which base estimator to use from the list of available estimators.
-    The threshold for selecting samples in 'threshold' criterion.
-    The criterion to use for selecting samples.
-    The number of top scoring samples to select when using 'k_best' criterion.
-    The maximum number of iterations. If None, it will be set to the number of unlabeled samples.
-    Whether to print information about each iteration.
+    The estimator to be used for training. If None, the base estimator will be used.
+    The base estimator to be used if no estimator is provided. Can be either a string indicating the type of estimator (e.g., 'logistic_regression') or an actual estimator object.
+    The threshold for selecting samples in the self-training algorithm.
+    The criterion to use for selecting samples in the self-training algorithm. Can be either 'threshold' (default) or 'k_best'.
+    The number of top-scoring samples to select in the self-training algorithm if criterion is set to 'k_best'.
+    The maximum number of iterations for the self-training algorithm.
+    Whether or not to print information about each iteration of the self-training algorithm.
 Attributes
 ----------
-    The trained estimator.
-    The predicted labels for all samples.
-    The iteration at which each sample was labeled.
-    The number of iterations performed.
-    The classes in the order they appear in the classifier.
-See also
---------
-ClassifierMixin, MetaEstimatorMixin, BaseEstimator
-Examples
---------
-&gt;&gt;&gt; from sklearn.datasets import load_digits
-&gt;&gt;&gt; from sklearn.svm import SVC
-&gt;&gt;&gt; from sklearn.utils import shuffle
-&gt;&gt;&gt; digits = load_digits()
-&gt;&gt;&gt; X_train, y_train = shuffle(digits.data, digits.target)
-&gt;&gt;&gt; X_test, y_test = shuffle(digits.data, digits.target)
-&gt;&gt;&gt; self_training_svm = SelfTrainingClassifier(SVC())
-&gt;&gt;&gt; self_training_svm.fit(X_train, y_train)
-&gt;&gt;&gt; predicted_labels = self_training_svm.predict(X_test)
-Raises
-------
-Returns
+    The actual estimator used for training.
+    The transduced labels for all samples.
+    The iteration number for which each sample was labeled.
+    The current iteration number of the self-training algorithm.
+    A string indicating why the self-training algorithm terminated (e.g., 'no_change', 'max_iter', 'all_labeled').
+Methods
 -------
-    The trained classifier.</t>
+fit(X, y)
+    Train the classifier on the given data X and y.
+predict(X)
+    Make predictions on the given data X using the trained classifier.
+predict_proba(X)
+    Return the probability of each class for the given data X using the trained classifier.
+decision_function(X)
+    Return the decision function value for the given data X using the trained classifier.
+predict_log_proba(X)
+    Return the log probability of each class for the given data X using the trained classifier.
+score(X, y)
+    Compute the score of the classifier on the given data X and y.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -19642,45 +19627,36 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SeparableConv Layer
-This layer implements the separable convolution operation as described in
-the paper "Deep Residual Learning for Image Recognition" by Kaiming He et al.
-convolution. This can be more efficient than a regular convolution, especially
-when the input has multiple channels.
-Args:
-                For example, if `rank` is 2, the convolution will be applied on
-                height and width axes.
-        depthwise convolution kernel.
-        used for the depthwise convolution. Defaults to 1.
-        Defaults to 'valid'.
-        One of "channels_last" or "channels_first". Defaults to None.
-        dilation rate used for the depthwise convolution. Defaults to 1.
-        `Activation` specifying the type of activation function to use. Defaults to None.
-        Defaults to True.
-        instance of `Initializer` specifying the initializer for the depthwise kernel.
-        Defaults to 'glorot_uniform'.
-        instance of `Initializer` specifying the initializer for the pointwise kernel.
-        Defaults to 'glorot_uniform'.
-        of `Initializer` specifying the initializer for the bias terms. Defaults to 'zeros'.
-        instance of `Regularizer` specifying the regularizer for the depthwise kernel.
-        Defaults to None.
-        instance of `Regularizer` specifying the regularizer for the pointwise kernel.
-        Defaults to None.
-        of `Regularizer` specifying the regularizer for the bias terms. Defaults to None.
-        instance of `Regularizer` specifying the regularizer for the layer's output.
-        Defaults to None.
-        instance of `Constraint` specifying the constraint for the depthwise kernel.
-        Defaults to None.
-        instance of `Constraint` specifying the constraint for the pointwise kernel.
-        Defaults to None.
-        of `Constraint` specifying the constraint for the bias terms. Defaults to None.
-Raises:
-Returns:
-    A dictionary containing the layer's configuration.
-Examples:
-    &gt;&gt;&gt; from tensorflow.keras.layers import SeparableConv
-    &gt;&gt;&gt; separable_conv = SeparableConv(2, 32, (3, 3), strides=(2, 2))
-    &gt;&gt;&gt; print(separable_conv.get_config())</t>
+          <t>Creates a separable convolutional layer.
+    This layer separates the depthwise convolution from the pointwise convolution,
+    which can significantly reduce the number of parameters and computation
+    required compared to standard convolution layers.
+    Args:
+            specifying the spatial dimensions of the depthwise and pointwise
+            convolution kernels. Can also be a tuple/list of length 3 to specify
+            the spatial dimensions of the depthwise convolution kernel and the
+            spatial dimensions of the pointwise convolution kernel.
+            specifying the strides of the depthwise and pointwise convolutions.
+            Can also be a tuple/list of length 3 to specify the strides of the
+            depthwise convolution and the strides of the pointwise convolution.
+            that the output has the same spatial dimensions as the input. If "valid",
+            no padding is applied. Alternatively, a string indicating the type of
+            padding (e.g., "causal").
+            specifying the dilation rates of the depthwise and pointwise convolutions.
+            Can also be a tuple/list of length 3 to specify the dilation rate of
+            the depthwise convolution and the dilation rate of the pointwise convolution.
+            "softmax".
+            weights matrix.
+            kernel.
+            weights matrix.
+    Returns:
+        A dictionary containing the layer's configuration.
+    Raises:
+    Examples:
+        &gt;&gt;&gt; from tensorflow.keras.layers import SeparableConv2D
+        &gt;&gt;&gt; x = tf.ones((1, 28, 28, 3))
+        &gt;&gt;&gt; separable_conv = SeparableConv2D(32, (3, 3), activation='relu', input_shape=(28, 28, 3))
+        &gt;&gt;&gt; y = separable_conv(x)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -19958,42 +19934,18 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SeparableConv1D
-This is a separable 1D convolutional layer. It separates the depthwise convolution from the pointwise convolution to reduce computation time.
-Parameters
-----------
-    The number of filters to use.
-    The size of the depthwise convolutional kernels.
-    The stride sizes for both spatial dimensions. Defaults to 1.
-    One of "valid" or "causal". Defaults to "valid".
-    String, one of channels_last (with shape (batch, time, features)) or channels_first (with shape (batch, features, time)). Defaults to None.
-    The dilation rates for both spatial dimensions. Defaults to 1.
-    The number of convolutional kernel in the depthwise separable case. Defaults to 1.
-    Whether or not to add a bias term. Defaults to True.
-    Initializer for the depthwise kernel weights matrix. Defaults to 'glorot_uniform'.
-    Initializer for the pointwise kernel weights matrix. Defaults to 'glorot_uniform'.
-    Initializer for the bias vector. Defaults to 'zeros'.
-    Regularizer function applied to the depthwise kernel weights matrix. Defaults to None.
-    Regularizer function applied to the pointwise kernel weights matrix. Defaults to None.
-    Regularizer function applied to the bias vector. Defaults to None.
-    Regularizer function applied to the output. Defaults to None.
-    Constraint function applied to the depthwise kernel weights matrix. Defaults to None.
-    Constraint function applied to the pointwise kernel weights matrix. Defaults to None.
-    Constraint function applied to the bias vector. Defaults to None.
-Returns
--------
-The output of the separable convolution operation, which can be a tensor or an activated tensor depending on whether an activation function is provided.
-Raises
-------
-No exceptions are explicitly raised by this class but may raise exceptions if invalid parameters are passed or if there are issues during computation.
-Examples
---------
-```python
-# Create a separable 1D convolutional layer with 64 filters and kernel size 3.
-conv = SeparableConv1D(64, (3,))
-# Apply the convolutional operation to an input tensor.
-output = conv(inputs)
-```</t>
+          <t>SeparableConv1D class for 1-dimensional separable convolutional layers.
+performs depthwise filtering and the other performs pointwise filtering. This
+split reduces the number of parameters required, making it more efficient.
+Args:
+Returns:
+Raises:
+Examples:
+    &gt;&gt;&gt; from tensorflow.keras.layers import SeparableConv1D
+    &gt;&gt;&gt; inputs = tf.random.normal((32, 28, 1))
+    &gt;&gt;&gt; conv_layer = SeparableConv1D(64, kernel_size=3)
+    &gt;&gt;&gt; outputs = conv_layer(inputs)
+"""</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -20250,19 +20202,16 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Performs separable convolution operation on 2D data.
-**Arguments**
-**Returns**
-* Output of separable convolution operation with applied activation (if specified).
-**Raises**
-* Any exceptions raised by underlying neural network library functions (`nn.separable_conv2d`, etc.).
-**Examples**
-```python
-# Create a separable convolution layer
-layer = SeparableConv2D(64, (3, 3), activation='relu')
-# Apply the layer to input data
-output = layer(inputs)
-```</t>
+          <t>SeparableConv2D class for separable convolutional 2D layers.
+This custom implementation extends the base SeparableConv class, providing additional configuration options and functionality.
+Args:
+Returns:
+    The output of the separable convolutional operation.
+Raises:
+Examples:
+    &gt;&gt;&gt; layer = SeparableConv2D(32, 3)
+    &gt;&gt;&gt; input_tensor = tf.ones((1, 28, 28, 1))
+    &gt;&gt;&gt; outputs = layer.call(input_tensor)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -21544,60 +21493,124 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[REASONING]
-The provided code is for a class named `SequentialFeatureSelector` which inherits from `_BaseXComposition` and `MetaEstimatorMixin`. The class has several methods including `__init__`, `fit`, `transform`, `fit_transform`, `get_params`, `set_params`, `finalize_fit`, `_feature_selector`, and others.
-The `__init__` method initializes the object with various parameters such as estimator, k_features, forward, floating, verbose, scoring, cv, n_jobs, pre_dispatch, etc. The `fit` method performs the actual feature selection using a sequential approach.
-The `transform` method is used to transform the input data into a new form by selecting only the features that are present in the best subset found during the fitting process.
-The `fit_transform` method fits the model and then transforms the input data.
-The `get_params` and `set_params` methods are used to get and set the parameters of the object, respectively.
-The `_feature_selector` method is a helper function used by the `fit` method to perform feature selection.
-The `_check_fitted` method checks if the object has been fitted before performing any operation on it.
-[CODE]
-```python
-    """
-    A class for sequential feature selection.
-    Parameters
-    ----------
-        The base estimator from which the feature selector is built.
-        Number of features to select. Can be 'best' (default) or 'parsimonious'.
-        Whether to perform forward selection or backward elimination.
-        Whether to allow floating feature selection.
-        Verbosity level.
-        Scoring function to use for feature selection. If None, the estimator's score method is used.
-        Number of folds for cross-validation.
-        Number of CPUs to use to do the computation. The default value is 1 unless n_jobs=-1 is specified,
-        in which case all available CPU cores are used. If set to -2, all CPUs but one are used exclusively
-        by the estimator, if set to -3, all CPUs but two are used exclusively by the estimator, and so on.
-        Optional attribute for the executor to decide when to stop after waiting a given type of time.
-    Attributes
-    ----------
-        The indices of the features in the best subset found during fitting.
-        The score of the best subset found during fitting.
-        A dictionary containing the feature indices and their corresponding scores for each subset found during fitting.
-    Methods
-    -------
-    fit(X, y=None, groups=None, **fit_params)
-        Perform feature selection on X using a sequential approach.
-    transform(X)
-        Transform the input data into a new form by selecting only the features that are present in the best subset found during fitting.
-    fit_transform(X, y=None, groups=None, **fit_params)
-        Fit to data, then transform it.
-    get_metric_dict(confidence_interval=0.95)
-        Return a dictionary containing various metrics for each subset found during fitting.
-    _check_fitted()
-        Check if the object has been fitted before performing any operation on it.
-    Examples
-    --------
-    &gt;&gt;&gt; from sklearn.datasets import load_iris
-    &gt;&gt;&gt; from sklearn.model_selection import train_test_split
-    &gt;&gt;&gt; from sklearn.feature_selection import SequentialFeatureSelector
-    &gt;&gt;&gt; from sklearn.linear_model import LogisticRegression
-    &gt;&gt;&gt; X, y = load_iris(return_X_y=True)
-    &gt;&gt;&gt; X_train, X_test, y_train, y_test = train_test_split(X, y, test_size=0.2, random_state=42)
-    &gt;&gt;&gt; selector = SequentialFeatureSelector(LogisticRegression(), k_features='best')
-    &gt;&gt;&gt; selector.fit(X_train, y_train)
-    &gt;&gt;&gt; selected_X_train = selector.transform(X_train)
-    &gt;&gt;&gt; print(selected_X_train.shape)</t>
+          <t>estimator,
+                 k_features="best",
+                 forward=True,
+                 floating=False,
+                 verbose=0,
+                 scoring=None,
+                 cv=None,
+                 n_jobs=None,
+                 pre_dispatch='all',
+                 clone_estimator=True,
+                 fixed_features=None,
+                 feature_groups=None):
+        """
+        Fits the model on the training data and selects the best subset of features.
+        Parameters:
+        Returns:
+        """
+        # Check if the model has been fitted before
+            raise AttributeError('SequentialFeatureSelector has already been fitted.')
+        # Fit the base estimator on the training data
+        X_, y_ = check_arrays(X, y)
+        # Perform feature selection using parallel processing
+        """
+        Performs feature selection using parallel processing.
+        Parameters:
+        Returns:
+        """
+        # Initialize the output
+        out = (None, None, None)
+        # Check if there are any remaining features
+        n_features = X.shape[1]
+        remaining_set = set(range(n_features)) - set(fixed_features)
+        # Perform feature selection using parallel processing
+        n_jobs = min(self.n_jobs, len(remaining_set))
+        parallel = Parallel(n_jobs=n_jobs, verbose=self.verbose, pre_dispatch=self.pre_dispatch)
+        work = parallel((delayed(_calc_score)(self, X, y, tuple(set(p) | set(fixed_features)), groups=groups, feature_groups=feature_groups) for p in combinations(list(remaining_set), r=1)))
+        all_avg_scores = []
+        all_cv_scores = []
+        all_subsets = []
+            all_avg_scores.append(np.nanmean(cv_scores))
+            all_cv_scores.append(cv_scores)
+            all_subsets.append(new_subset)
+        # Select the best subset of features
+            best = np.argmax(all_avg_scores)
+            out = (all_subsets[best], all_avg_scores[best], all_cv_scores[best])
+        """
+        Transforms the input data to include only the selected features.
+        Parameters:
+        Returns:
+        """
+        # Check if the model has been fitted
+        # Transform the input data
+        X_, _ = _preprocess(X)
+        """
+        Fits the model and transforms the input data in one step.
+        Parameters:
+        Returns:
+        """
+        # Fit the model on the training data
+        # Transform the input data
+        """
+        Returns a dictionary of metrics for each subset of features.
+        Parameters:
+        Returns:
+        """
+        # Check if the model has been fitted
+        # Calculate the metrics for each subset of features
+        fdict = deepcopy(self.subsets_)
+            std_dev = np.std(self.subsets_[k]['cv_scores'])
+            bound, std_err = self._calc_confidence(self.subsets_[k]['cv_scores'], confidence=confidence_interval)
+            fdict[k]['ci_bound'] = bound
+            fdict[k]['std_dev'] = std_dev
+            fdict[k]['std_err'] = std_err
+        """
+        Checks if the model has been fitted.
+        Raises:
+        """
+        # Check if the model has been fitted
+            raise AttributeError('SequentialFeatureSelector has not been fitted.')
+        """
+        Calculates the confidence interval for a given set of scores.
+        Parameters:
+        Returns:
+        """
+        # Calculate the standard deviation and standard error
+        std_dev = np.std(scores)
+        std_err = std_dev / np.sqrt(len(scores))
+        # Calculate the confidence interval
+        bound = scores.mean() + (std_err * stats.norm.ppf(1 - (1 - confidence_interval) / 2))
+        """
+        Finalizes the fit by selecting the best subset of features.
+        Raises:
+        """
+        # Check if the model has been fitted
+        # Select the best subset of features
+            k = np.argmax(self.subsets_)
+        elif self.k_features == 'parsimonious':
+            k = np.argmin([self.subsets_[i]['cv_scores'].mean() for i in range(len(self.subsets_))])
+        else:
+            k = int(self.k_features)
+        # Update the attributes
+        """
+        Gets the parameters of the estimator.
+        Parameters:
+        Returns:
+        """
+        # Get the parameters of the base estimator
+        params = super(SequentialFeatureSelector, self).get_params(deep=deep)
+        # Add the parameters specific to this class
+        params['k_features'] = self.k_features
+        params['forward'] = self.forward
+        params['floating'] = self.floating
+        params['verbose'] = self.verbose
+        params['scoring'] = self.scoring
+        params['cv'] = self.cv
+        params['n_jobs'] = self.n_jobs
+        params['pre_dispatch'] = self.pre_dispatch
+        params['clone_estimator'] = self.clone_estimator</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -21874,16 +21887,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Stochastic Gradient Descent (SGD) Optimizer
-This class implements the Stochastic Gradient Descent optimizer in TensorFlow.
-It uses the momentum update rule to improve convergence speed and stability.
-**Args**
-**Returns**
-* None for all methods except `get_config()`, which returns a dictionary containing the config of the SGD optimizer.
-**Raises**
-**Examples**
-&gt;&gt;&gt; from tensorflow import keras
-&gt;&gt;&gt; optimizer = keras.optimizers.SGD(learning_rate=0.01, momentum=0.9)</t>
+          <t>Stochastic Gradient Descent (SGD) Optimizer.
+This class implements the Stochastic Gradient Descent (SGD) optimizer, which is a popular choice for training deep learning models. The optimizer uses gradient descent to minimize the loss function by iteratively updating the model's parameters.
+Args:
+        Default value is 0.01.
+        Default value is 0.0.
+        Default value is False.
+        Default value is 'SGD'.
+Returns:
+    An instance of the SGD optimizer.
+Raises:
+Examples:
+```python
+# Create an SGD optimizer with learning rate 0.01 and momentum 0.9.
+sgd_optimizer = tf.keras.optimizers.SGD(learning_rate=0.01, momentum=0.9)
+# Create an SGD optimizer with Nesterov acceleration.
+nesterov_sgd_optimizer = tf.keras.optimizers.SGD(learning_rate=0.01, nesterov=True)
+```
+"""</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -22207,62 +22228,38 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Softmax Regression Model
+          <t>SoftmaxRegression
+A Softmax regression model for multi-class classification problems.
 Parameters
 ----------
-    Learning rate for SGD
-    Number of training epochs
-    L2 regularization coefficient
-    Number of minibatches to use during training
-    Number of classes in the classification problem
-    Random seed for reproducibility
-    Whether to print progress during training
+    Learning rate.
+    Number of training epochs.
+    L2 regularization strength.
+    Minibatch size.
+    Number of classes. If None, it will be inferred from the target labels.
+    Random seed for reproducibility.
+    Print progress every `print_progress` iterations.
 Attributes
 ----------
-    Learning rate used during training
-    Number of epochs trained
-    L2 regularization coefficient used during training
-    Number of minibatches used during training
-    Number of classes in the classification problem
-    Random seed used for reproducibility
-    Whether progress was printed during training
+    Weight vector.
+    Bias term.
+    List of costs at each iteration.
 Methods
 -------
-__init__(eta=0.01, epochs=50, l2=0.0, minibatches=1, n_classes=None, random_seed=None, print_progress=False)
-    Initializes the model with given parameters
-_net_input(X) -&gt; np.ndarray
-    Computes net input for each sample in training data
-_softmax_activation(z) -&gt; np.ndarray
-    Applies softmax activation function to output of _net_input
-_cross_entropy(output, y_target) -&gt; float
-    Computes cross-entropy loss between predicted probabilities and true labels
-_cost(cross_entropy) -&gt; float
-    Calculates cost (mean squared error) by adding regularization term
-_to_classlabels(z) -&gt; np.ndarray
-    Converts output of softmax activation function into class labels
-_forward(X) -&gt; np.ndarray
-    Computes forward pass through network, applying softmax activation function
+__init__(eta=0.01, epochs=50, l2=0.0, minibatches=1, n_classes=None, random_seed=None, print_progress=0)
+    Initialize the model with given parameters.
+    Compute net input to softmax activation function.
+    Apply softmax activation function to output of `_net_input`.
+    Compute cross-entropy loss between predicted output and true target labels.
+    Compute total cost by adding L2 regularization term to cross-entropy loss.
+    Convert predicted probabilities to class labels using `argmax`.
+    Apply softmax activation function to input data and return output probabilities.
 _backward(X, y_true, y_probas)
-    Computes gradients of loss with respect to weights and bias terms
+    Compute gradients of loss with respect to weights and bias terms.
 _fit(X, y, init_params=True)
-    Trains model using SGD with minibatches
-predict_proba(X) -&gt; np.ndarray
-    Predicts probabilities of each class given new input sample
-_predict(X) -&gt; np.ndarray
-    Predicts class labels from predicted probabilities
-Examples
---------
-&gt;&gt;&gt; from sklearn.datasets import load_iris
-&gt;&gt;&gt; from sklearn.model_selection import train_test_split
-&gt;&gt;&gt; iris = load_iris()
-&gt;&gt;&gt; X_train, X_test, y_train, y_test = train_test_split(iris.data, iris.target, test_size=0.2)
-&gt;&gt;&gt; model = SoftmaxRegression(n_classes=3)
-&gt;&gt;&gt; model.fit(X_train, y_train)
-&gt;&gt;&gt; predictions = model.predict_proba(X_test)
-Raises
-------
-ValueError
-    If `n_classes` is not provided and cannot be inferred from `y`</t>
+    Train the model on input data, computing cost at each iteration and updating weights and bias terms accordingly.
+    Apply softmax activation function to input data and return output probabilities.
+    Convert predicted probabilities to class labels using `_to_classlabels`.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -22976,53 +22973,45 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>TargetEncoder
-================
-A class for encoding categorical variables using target encoding. It inherits from `_BaseEncoder` and implements the `OneToOneFeatureMixin`.
+Encodes categorical variables using a target encoding technique.
 Parameters
 ----------
-    Categories to encode.
-    Type of the target variable.
-    Smooth value for continuous encodings.
-    Number of cross-validation folds.
-    Flag to shuffle the data during fitting.
-    Random state for shuffling.
+    List of categories to encode. If 'auto', the encoder will automatically detect the categories.
+    The random state for shuffling and splitting.
 Attributes
 ----------
 categories_
-    Categories to encode.
+    List of categories to encode.
 target_type_
-    Type of the target variable.
+    The type of target variable.
 smooth_
-    Smooth value for continuous encodings.
+    Whether to smooth the encoding.
 cv_
-    Number of cross-validation folds.
+    The number of folds for cross-validation.
 shuffle_
-    Flag to shuffle the data during fitting.
+    Whether to shuffle the data during cross-validation.
 random_state_
-    Random state for shuffling.
-encodings_
-    Fitted encodings.
+    The random state for shuffling and splitting.
 Methods
 -------
-__init__(categories='auto', target_type='auto', smooth='auto', cv=5, shuffle=True, random_state=None)
-    Initializes the encoder with the given parameters.
 fit(X, y)
-    Fits the encoder to the data using the provided X and y values.
+    Fits the encoder to the training data.
 fit_transform(X, y)
-    Fits the encoder to the data and returns the transformed data.
+    Combines fitting and transforming into one step.
 transform(X)
-    Transforms the data based on the fitted encodings.
+    Transforms new data using the learned encodings.
 get_feature_names_out(input_features=None)
-    Returns the feature names of the transformed data.
+    Returns the feature names of the encoded data.
 Examples
 --------
 &gt;&gt;&gt; from sklearn.preprocessing import TargetEncoder
-&gt;&gt;&gt; te = TargetEncoder()
-&gt;&gt;&gt; te.fit_transform(X, y)
+&gt;&gt;&gt; encoder = TargetEncoder()
+&gt;&gt;&gt; encoder.fit_transform(X_train, y_train)
 Raises
 ------
-ValueError
-    If the target type is unknown.</t>
+See Also
+--------
+OneToOneFeatureMixin, _BaseEncoder</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -23297,39 +23286,32 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transform transactions into binary vectors.
-This transformer encodes each transaction as a binary vector where the presence
-of an item is indicated by `True` at the corresponding column index. The columns
-are sorted alphabetically by their names, which can be retrieved using the
-`get_feature_names_out` method.
+          <t>Transforms a list of transactions into a sparse or dense matrix format, where each row represents a transaction, and columns represent unique items across all transactions. The transformation can be done in either sparse (default) or dense format.
 Parameters
 ----------
-    Transactions to encode.
-    Whether to return sparse arrays instead of dense ones.
+    List of transactions, where each transaction is itself a list of items.
+    Whether to transform into sparse matrix format (True) or dense format (False).
 Returns
 -------
-    Encoded binary vectors. If `sparse=True`, the array is a CSR matrix with
-    boolean values; otherwise, it's a dense array.
+    Transformed data in specified format.
 Raises
 ------
 ValueError
-    If `sparse` is not a boolean value.
+    If the input `X` is not a list of lists, or if an item appears in multiple transactions but with different column indices.
 Examples
 --------
 &gt;&gt;&gt; from sklearn.base import BaseEstimator, TransformerMixin
 &gt;&gt;&gt; class TransactionEncoder(BaseEstimator, TransformerMixin):
 ...     def fit_transform(self, X, sparse=False):
-...         # implementation of the fit_transform method
-...
-&gt;&gt;&gt; encoder = TransactionEncoder()
-&gt;&gt;&gt; encoded_transactions = encoder.fit_transform([[1, 2], [3, 4]])
-&gt;&gt;&gt; print(encoded_transactions)
-array([[ True,  True],
-       [ True,  True]])
-&gt;&gt;&gt; encoder.sparse = True
-&gt;&gt;&gt; encoded_transactions_sparse = encoder.fit_transform([[1, 2], [3, 4]], sparse=True)
-&gt;&gt;&gt; print(encoded_transactions_sparse)
-&lt;1x2 CSR matrix, dtype=bool&gt;</t>
+...         # Implementation as above
+# Example usage:
+X = [[1, 2], [3, 4], [5]]
+sparse_encoder = TransactionEncoder()
+sparse_array = sparse_encoder.fit_transform(X)
+dense_encoder = TransactionEncoder(sparse=False)
+dense_array = dense_encoder.fit_transform(X)
+print(sparse_array.toarray())  # Print the sparse array in dense format
+print(dense_array)             # Print the dense array directly</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -23462,20 +23444,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Upsamples 1D inputs along axis 1 by a specified factor.
-This layer upsamples the input data along the second axis (axis 1) by repeating each element
-the specified number of times. This is equivalent to inserting zeros between elements in that dimension.
-Args:
-        The factor by which to upsample along axis 1.
-        Arbitrary keyword arguments passed to the parent class constructor.
-Returns:
-        The upsampled tensor with shape [input_shape[0], size*input_shape[1], input_shape[2]].
-Raises:
-Examples:
-    &gt;&gt;&gt; from tensorflow.keras.layers import UpSampling1D
-    &gt;&gt;&gt; upsample = UpSampling1D(size=3)
-    &gt;&gt;&gt; inputs = tf.constant([[[1, 2], [3, 4]]])
-    &gt;&gt;&gt; output = upsample(inputs)</t>
+          <t>UpSampling1D
+============
+Upsamples input data along the first dimension by repeating elements.
+Parameters
+----------
+    The size of the output array.
+    Additional keyword arguments passed to the parent class constructor.
+Input Shape
+------------
+Output Shape
+-------------
+The shape of the output data is determined by upsampling the input along the first dimension.
+Raises
+------
+* None
+Returns
+-------
+    The upscaled input data.
+Examples
+--------
+&gt;&gt;&gt; from tensorflow.keras.layers import Input, UpSampling1D
+&gt;&gt;&gt; inputs = Input(shape=(10,))
+&gt;&gt;&gt; upsampled = UpSampling1D(size=3)(inputs)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -23677,18 +23668,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Up-sampling 2D images using interpolation.
-Args:
-Raises:
-Returns:
-    A tensor with the up-sampled images.
-Examples:
-    &gt;&gt;&gt; from tensorflow.keras.layers import UpSampling2D
-    &gt;&gt;&gt; input_shape = (28, 28, 1)
-    &gt;&gt;&gt; inputs = tf.random.normal(input_shape)
-    &gt;&gt;&gt; layer = UpSampling2D(size=(2, 2))
-    &gt;&gt;&gt; outputs = layer(inputs)
-"""</t>
+          <t>Upsamples an input tensor by a specified size.
+This layer uses interpolation to resize the input array.
+    Args:
+            The upsampling factor (height and width).
+            A binary string specifying the data format of the input array.
+            One of either `"channels_first"` or `"channels_last"`.
+            The interpolation method to use.
+    Returns:
+        output tensor
+        The resized input image with the specified size and data format.
+    Raises:
+        ValueError
+            If `interpolation` argument does not match one of the allowed values.
+    Examples:
+        &gt;&gt;&gt; from keras.layers import Input, UpSampling2D
+        # Define a sample input layer
+        inputs = Input(shape=(256, 256, 3))
+        # Apply up-sampling with specified size and interpolation method
+        output = UpSampling2D(size=(2, 2), interpolation='bilinear')(inputs)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -23859,15 +23857,20 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Args:
+          <t>Upsamples 3D data.
+This layer upsamples 3D data based on the given size and data format. It can be used in Keras models to increase the resolution of output tensors.
+Args:
+        Defaults to (2, 2, 2).
+        If not specified, it will default to the value in Keras configuration.
 Returns:
-    A tensor with the up-sampled input.
+    A TensorShape object representing the shape of the output tensor.
+    In `call` method, returns the resized volumes using `backend.resize_volumes`.
 Raises:
 Examples:
-    &gt;&gt;&gt; from keras.layers import UpSampling3D
-    &gt;&gt;&gt; layer = UpSampling3D(size=(2, 2, 2))
-    &gt;&gt;&gt; input_tensor = ...  # Input tensor with shape (batch_size, channels, height, width, depth)
-    &gt;&gt;&gt; output_tensor = layer.call(input_tensor)</t>
+    ```python
+upsample_layer = UpSampling3D(size=(2, 2, 2), data_format='channels_last')
+output_shape = upsample_layer.compute_output_shape((10, 20, 30, 40, 50))
+```</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -24021,22 +24024,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ZeroPadding1D Layer
-This layer is used to add 1D temporal padding to input sequences.
-Args:
-        of padding values to be added at both ends of the sequence. If an integer,
-        it represents the number of padding values on one side, and the same value
-        is used for both sides.
-Returns:
-    A tensor with shape [batch_size, length, channels] where 'length' is the padded
-        sequence length.
-Raises:
-        values are not a tuple of length 2.
-Examples:
-&gt;&gt;&gt; from tensorflow.keras.layers import Input, ZeroPadding1D
-&gt;&gt;&gt; inputs = Input(shape=(10,))
-&gt;&gt;&gt; x = ZeroPadding1D(padding=2)(inputs)
-"""</t>
+          <t>"""
+    Initializes the ZeroPadding1D layer.
+    Args:
+    Keyword Arguments:
+    """
+    super(ZeroPadding1D, self).__init__(**kwargs)
+"""
+    Calculates the output shape based on the input shape and the specified padding.
+    Args:
+    Returns:
+    """
+        length = input_shape[1] + self.padding[0] + self.padding[1]
+    else:
+        length = None
+"""
+    Applies zero-padding to the input data.
+    Args:
+    Returns:
+    """</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -24310,7 +24316,41 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>"</t>
+          <t>""" 
+        """
+Args:
+Returns:
+    None
+Raises:
+Configuration:
+Examples:
+    &gt;&gt;&gt; from keras.layers import ZeroPadding2D
+    &gt;&gt;&gt; padding = ((1, 1), (1, 1))  # symmetric padding
+    &gt;&gt;&gt; layer = ZeroPadding2D(padding=padding)
+    """
+""" 
+        """
+Args:
+Returns:
+Examples:
+    &gt;&gt;&gt; from keras.layers import ZeroPadding2D
+    &gt;&gt;&gt; layer = ZeroPadding2D(padding=(1, 1))
+    &gt;&gt;&gt; input_data = np.random.rand(10, 10, 3)  # assuming channels_last format
+    &gt;&gt;&gt; output_shape = layer.compute_output_shape(input_data.shape)
+"""
+""" 
+        """
+Args:
+Returns:
+Examples:
+    &gt;&gt;&gt; from keras.layers import ZeroPadding2D
+    &gt;&gt;&gt; padding = ((1, 1), (1, 1))  # symmetric padding
+    &gt;&gt;&gt; layer = ZeroPadding2D(padding=padding)
+    &gt;&gt;&gt; input_data = np.random.rand(10, 10, 3)  # assuming channels_last format
+    &gt;&gt;&gt; padded_input_data = layer.call(input_data)
+Raises:
+"""
+"""</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -24587,28 +24627,20 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Applies 3D spatial padding to the input tensor.
-    This layer applies a 3D padding to the input tensor. It can be used for various tasks such as image processing or feature extraction in deep learning models.
-    **Parameters**:
-            - If an integer is provided, it's applied equally to all dimensions.
-            - A tuple or list with three elements can be used for asymmetric padding.
-            - For symmetric padding in each dimension, provide a tuple or list with two integers (left and right padding).
-    **Returns**:
-        * The padded input tensor.
-    **Raises**:
-    **Examples**:
-        &gt;&gt;&gt; from tensorflow.keras.layers import ZeroPadding3D
-        &gt;&gt;&gt; layer = ZeroPadding3D(padding=(1, 1, 1), data_format='channels_last')
-        &gt;&gt;&gt; input_tensor = tf.ones((1, 10, 10, 10, 1))
-        &gt;&gt;&gt; output = layer.call(input_tensor)
-"""
-"""    
-    Args:
-            If an integer is provided, it's applied equally to all dimensions. A tuple or list with
-            three elements can be used for asymmetric padding. For symmetric padding in each
-            dimension, provide a tuple or list with two integers (left and right padding).
-    Returns:
-    Raises:</t>
+          <t>ZeroPadding3D Layer
+Applies 3D spatial padding to inputs.
+**Parameters**
+**Returns**
+* Output tensor with padded dimensions.
+**Raises**
+**Examples**
+```python
+# Create a ZeroPadding3D layer with symmetric padding of 1 unit in each dimension
+layer = ZeroPadding3D(padding=(1, 1, 1))
+# Apply the layer to an input tensor
+input_tensor = tf.ones((1, 10, 10, 10, 10))
+output_tensor = layer(input_tensor)
+```</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -25267,133 +25299,82 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Encoder for categorical variables using label encoding.
-This class is used to encode categorical features as integers.
-It also supports handling of unknown categories and can be configured to
-ignore infrequent categories.
+          <t>Categorical Encoder
+This class implements categorical encoding, which is a technique used in data preprocessing
+to convert categorical variables into numerical variables that can be processed by machine learning algorithms.
 Parameters
 ----------
-    The data to encode.
-    How to handle samples with unknown categories in fit method.
-    Whether to raise an error on non-integer/numpy.float64 input.
-Returns
+    The input data to be encoded.
+    If True, raise an error if any values are missing or infinite in the input data.
+    Whether to raise an error or ignore unknown categories during encoding.
+Attributes
+----------
+    The unique categories for each feature.
+    The indices of infrequently occurring categories for each feature.
+    The mapping from infrequently occurring categories to default values for each feature.
+Methods
 -------
-    The encoded data.
-See also
---------
-LabelEncoder
+fit(X, handle_unknown='error', force_all_finite=True)
+    Fits the categorical encoding model to the input data.
+transform(X, handle_unknown='error', force_all_finite=True)
+    Transforms the input data using the fitted categorical encoding model.
+infrequent_categories_(self)
+    Returns a list of infrequently occurring categories for each feature.
 Examples
 --------
-&gt;&gt;&gt; from sklearn.preprocessing import LabelEncoder
-&gt;&gt;&gt; le = LabelEncoder()
-&gt;&gt;&gt; X = np.array([['foo', 'bar'], ['foo', 'baz']])
-&gt;&gt;&gt; le.fit_transform(X)
+&gt;&gt;&gt; from categorical_encoder import CategoricalEncoder
+&gt;&gt;&gt; encoder = CategoricalEncoder()
+&gt;&gt;&gt; encoder.fit(X)
+&gt;&gt;&gt; encoded_X = encoder.transform(X)
 """
-"""
-    Initialize the encoder.
-    Parameters
-    ----------
-        How to handle samples with unknown categories in fit method.
-    """
-"""
-    Check if the input data is a 2D array with categorical features.
-    Parameters
-    ----------
-        The data to check.
-    Returns
-    -------
-        The columns of X after checking and possibly converting them to
-        categorical dtype.
-        The number of samples in the input data.
-        The number of features in the input data.
-    """
-    # Check if X is a 2D array with categorical features
-        X_temp = check_array(X, dtype=None, force_all_finite=force_all_finite)
-            X = check_array(X, dtype=object, force_all_finite=force_all_finite)
-        else:
-            X = X_temp
-        needs_validation = False
-    else:
-        needs_validation = force_all_finite
-    # Check if the input data has categorical features
-    n_samples, n_features = X.shape
-    X_columns = []
-        Xi = _safe_indexing(X, indices=i, axis=1)
-        Xi = check_array(Xi, ensure_2d=False, dtype=None, force_all_finite=needs_validation)
-        X_columns.append(Xi)
-"""
-    Fit the encoder to the training data.
-    Parameters
-    ----------
-        The training data.
-    Returns
-    -------
-        A dictionary containing the following information:
-    """
-    X_list, n_samples, n_features = self._check_X(X, force_all_finite=force_all_finite)
-    # Check if the categories are set
-    # Initialize the category counts and missing indices
-    category_counts = []
-    compute_counts = return_counts or self._infrequent_enabled
-        Xi = X_list[i]
-            result = _unique(Xi, return_counts=compute_counts)
-                cats, counts = result
-                category_counts.append(counts)
-            else:
-                cats = result
-        else:
-            # Check if the categories are of the correct type
-                Xi_dtype = object
-            else:
-                Xi_dtype = Xi.dtype
-            # Check if the predefined categories contain duplicate elements
-            cats = np.array(self.categories[i], dtype=Xi_dtype)
-                msg = f"In column {i}, the predefined categories have type 'bytes' which is incompatible with values of type '{type(Xi[0]).__name__}'."
-                raise ValueError(msg)
-            # Check if nan should be the last element in user provided categories
-                    raise ValueError(f'Nan should be the last element in user provided categories, see categories {cats} in column #{i}')
-            # Check if the predefined categories contain duplicate elements
-                msg = f'In column {i}, the predefined categories contain duplicate elements.'
-                raise ValueError(msg)
-            # Check if unsorted categories are supported for numerical categories
-                sorted_cats = np.sort(cats)
-                error_msg = 'Unsorted categories are not supported for numerical categories'
-                stop_idx = -1 if np.isnan(sorted_cats[-1]) else None
-                    raise ValueError(error_msg)
-            # Check if the handle_unknown parameter is set to 'error'
-                diff = _check_unknown(Xi, cats)
-                    msg = 'Found unknown categories {0} in column {1} during fit'.format(diff, i)
-                    raise ValueError(msg)
-    # Compute the category counts
-            counts = np.bincount(np.searchsorted(cats, X_list[i]))
-            category_counts.append(counts)
-    # Check if infrequent categories should be ignored
-        missing_indices = {}
-                counts = np.bincount(np.searchsorted(cats, X_list[i]))
-                infreq_idx = np.where(counts &lt; self._infrequent_threshold)[0]
-                missing_indices[i] = infreq_idx
-"""
-    Apply the learned mapping to new, unseen data.
-    Parameters
-    ----------
-        The new data.
-    Returns
-    -------
-        The encoded data.
-    """
-    # Check if the categories are set
-        raise ValueError('Categories must be set before transforming')
-    # Apply the learned mapping to new, unseen data
-    X_new = []
-        cats = self.categories_[i]
-        infreq_idx = np.where(counts &lt; self._infrequent_threshold)[0]
-        # Apply the learned mapping to new, unseen data
-        else:
-"""
-    Provide additional metadata about the encoder.
-    Returns
-    -------
-        A dictionary containing the following information:</t>
+        """
+        Checks if the input data is a 2D array with numerical or string values.
+        Parameters
+        ----------
+            The input data to be checked.
+            If True, raise an error if any values are missing or infinite in the input data.
+        Returns
+        -------
+        tuple of array-likes and integers
+            A tuple containing the transformed input data, the number of samples, and the number of features.
+        """
+        # code to check X...
+        """
+        Fits the categorical encoding model to the input data.
+        Parameters
+        ----------
+            The input data to be encoded.
+            Whether to raise an error or ignore unknown categories during encoding.
+            If True, raise an error if any values are missing or infinite in the input data.
+            If True, returns a dictionary with the count of each category for each feature.
+            If True, ignores missing categories for infrequently occurring features.
+        Returns
+        -------
+        dict
+            A dictionary containing the encoded data and optional counts and missing indices.
+        """
+        # code to fit...
+        """
+        Transforms the input data using the fitted categorical encoding model.
+        Parameters
+        ----------
+            The input data to be encoded.
+            Whether to raise an error or ignore unknown categories during encoding.
+            If True, raise an error if any values are missing or infinite in the input data.
+            If True, raises a warning for unknown categories.
+        Returns
+        -------
+        tuple of array-likes and boolean mask
+            A tuple containing the encoded data and a boolean mask indicating valid categories.
+        """
+        # code to transform...
+    @property
+        """
+        Returns a list of infrequently occurring categories for each feature.
+        Returns
+        -------
+        list of array-likes
+            The unique categories for each feature that are infrequently occurring.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
